--- a/Data/unwired.xlsx
+++ b/Data/unwired.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N539"/>
+  <dimension ref="A1:O539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,11 @@
           <t>EIRP_dBm</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>EIRP_dBm/Hz</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -562,6 +567,9 @@
       <c r="N2" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O2" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -620,6 +628,9 @@
       <c r="N3" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O3" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -678,6 +689,9 @@
       <c r="N4" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O4" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -736,6 +750,9 @@
       <c r="N5" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O5" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -794,6 +811,9 @@
       <c r="N6" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O6" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -852,6 +872,9 @@
       <c r="N7" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O7" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -910,6 +933,9 @@
       <c r="N8" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O8" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -968,6 +994,9 @@
       <c r="N9" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O9" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1026,6 +1055,9 @@
       <c r="N10" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O10" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1084,6 +1116,9 @@
       <c r="N11" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O11" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1142,6 +1177,9 @@
       <c r="N12" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O12" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1200,6 +1238,9 @@
       <c r="N13" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O13" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1258,6 +1299,9 @@
       <c r="N14" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O14" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1316,6 +1360,9 @@
       <c r="N15" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O15" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1374,6 +1421,9 @@
       <c r="N16" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O16" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1432,6 +1482,9 @@
       <c r="N17" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O17" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1490,6 +1543,9 @@
       <c r="N18" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O18" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1548,6 +1604,9 @@
       <c r="N19" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O19" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1606,6 +1665,9 @@
       <c r="N20" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O20" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1664,6 +1726,9 @@
       <c r="N21" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O21" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1722,6 +1787,9 @@
       <c r="N22" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O22" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1780,6 +1848,9 @@
       <c r="N23" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O23" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1838,6 +1909,9 @@
       <c r="N24" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O24" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1896,6 +1970,9 @@
       <c r="N25" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O25" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1954,6 +2031,9 @@
       <c r="N26" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O26" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2012,6 +2092,9 @@
       <c r="N27" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O27" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2070,6 +2153,9 @@
       <c r="N28" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O28" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2128,6 +2214,9 @@
       <c r="N29" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O29" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2186,6 +2275,9 @@
       <c r="N30" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O30" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2244,6 +2336,9 @@
       <c r="N31" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O31" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2302,6 +2397,9 @@
       <c r="N32" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O32" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2360,6 +2458,9 @@
       <c r="N33" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O33" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2418,6 +2519,9 @@
       <c r="N34" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O34" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2476,6 +2580,9 @@
       <c r="N35" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O35" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2534,6 +2641,9 @@
       <c r="N36" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O36" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2592,6 +2702,9 @@
       <c r="N37" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O37" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2650,6 +2763,9 @@
       <c r="N38" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O38" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2708,6 +2824,9 @@
       <c r="N39" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O39" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2766,6 +2885,9 @@
       <c r="N40" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O40" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2824,6 +2946,9 @@
       <c r="N41" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O41" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2882,6 +3007,9 @@
       <c r="N42" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O42" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2940,6 +3068,9 @@
       <c r="N43" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O43" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2998,6 +3129,9 @@
       <c r="N44" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O44" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3056,6 +3190,9 @@
       <c r="N45" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O45" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3114,6 +3251,9 @@
       <c r="N46" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O46" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3172,6 +3312,9 @@
       <c r="N47" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O47" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3230,6 +3373,9 @@
       <c r="N48" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O48" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3288,6 +3434,9 @@
       <c r="N49" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O49" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3346,6 +3495,9 @@
       <c r="N50" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O50" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3404,6 +3556,9 @@
       <c r="N51" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O51" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3462,6 +3617,9 @@
       <c r="N52" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O52" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3520,6 +3678,9 @@
       <c r="N53" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O53" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3578,6 +3739,9 @@
       <c r="N54" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O54" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3636,6 +3800,9 @@
       <c r="N55" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O55" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3694,6 +3861,9 @@
       <c r="N56" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O56" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3752,6 +3922,9 @@
       <c r="N57" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O57" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3810,6 +3983,9 @@
       <c r="N58" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O58" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3868,6 +4044,9 @@
       <c r="N59" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O59" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3926,6 +4105,9 @@
       <c r="N60" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O60" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3984,6 +4166,9 @@
       <c r="N61" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O61" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4042,6 +4227,9 @@
       <c r="N62" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O62" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4100,6 +4288,9 @@
       <c r="N63" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O63" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4158,6 +4349,9 @@
       <c r="N64" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O64" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4216,6 +4410,9 @@
       <c r="N65" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O65" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4274,6 +4471,9 @@
       <c r="N66" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O66" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4332,6 +4532,9 @@
       <c r="N67" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O67" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4390,6 +4593,9 @@
       <c r="N68" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O68" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4448,6 +4654,9 @@
       <c r="N69" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O69" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4506,6 +4715,9 @@
       <c r="N70" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O70" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4564,6 +4776,9 @@
       <c r="N71" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O71" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4622,6 +4837,9 @@
       <c r="N72" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O72" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4680,6 +4898,9 @@
       <c r="N73" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O73" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4738,6 +4959,9 @@
       <c r="N74" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O74" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4796,6 +5020,9 @@
       <c r="N75" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O75" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4854,6 +5081,9 @@
       <c r="N76" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O76" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4912,6 +5142,9 @@
       <c r="N77" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O77" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4970,6 +5203,9 @@
       <c r="N78" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O78" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5028,6 +5264,9 @@
       <c r="N79" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O79" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5086,6 +5325,9 @@
       <c r="N80" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O80" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5144,6 +5386,9 @@
       <c r="N81" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O81" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5202,6 +5447,9 @@
       <c r="N82" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O82" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5260,6 +5508,9 @@
       <c r="N83" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O83" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5318,6 +5569,9 @@
       <c r="N84" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O84" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5376,6 +5630,9 @@
       <c r="N85" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O85" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5434,6 +5691,9 @@
       <c r="N86" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O86" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5492,6 +5752,9 @@
       <c r="N87" t="n">
         <v>41.07209969647869</v>
       </c>
+      <c r="O87" t="n">
+        <v>8.214419939295738</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5550,6 +5813,9 @@
       <c r="N88" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O88" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5608,6 +5874,9 @@
       <c r="N89" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O89" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5666,6 +5935,9 @@
       <c r="N90" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O90" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5724,6 +5996,9 @@
       <c r="N91" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O91" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5782,6 +6057,9 @@
       <c r="N92" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O92" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5840,6 +6118,9 @@
       <c r="N93" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O93" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5898,6 +6179,9 @@
       <c r="N94" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O94" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5956,6 +6240,9 @@
       <c r="N95" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O95" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6014,6 +6301,9 @@
       <c r="N96" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O96" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6072,6 +6362,9 @@
       <c r="N97" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O97" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6130,6 +6423,9 @@
       <c r="N98" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O98" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6188,6 +6484,9 @@
       <c r="N99" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O99" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6246,6 +6545,9 @@
       <c r="N100" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O100" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6304,6 +6606,9 @@
       <c r="N101" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O101" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6362,6 +6667,9 @@
       <c r="N102" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O102" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6420,6 +6728,9 @@
       <c r="N103" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O103" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6478,6 +6789,9 @@
       <c r="N104" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O104" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6536,6 +6850,9 @@
       <c r="N105" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O105" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6594,6 +6911,9 @@
       <c r="N106" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O106" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6652,6 +6972,9 @@
       <c r="N107" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O107" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6710,6 +7033,9 @@
       <c r="N108" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O108" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6768,6 +7094,9 @@
       <c r="N109" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O109" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6826,6 +7155,9 @@
       <c r="N110" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O110" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6884,6 +7216,9 @@
       <c r="N111" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O111" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6942,6 +7277,9 @@
       <c r="N112" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O112" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7000,6 +7338,9 @@
       <c r="N113" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O113" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7058,6 +7399,9 @@
       <c r="N114" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O114" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7116,6 +7460,9 @@
       <c r="N115" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O115" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7174,6 +7521,9 @@
       <c r="N116" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O116" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7232,6 +7582,9 @@
       <c r="N117" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O117" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7290,6 +7643,9 @@
       <c r="N118" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O118" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7348,6 +7704,9 @@
       <c r="N119" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O119" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7406,6 +7765,9 @@
       <c r="N120" t="n">
         <v>36.81241237375587</v>
       </c>
+      <c r="O120" t="n">
+        <v>7.362482474751173</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7464,6 +7826,9 @@
       <c r="N121" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O121" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7522,6 +7887,9 @@
       <c r="N122" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O122" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7580,6 +7948,9 @@
       <c r="N123" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O123" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7638,6 +8009,9 @@
       <c r="N124" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O124" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7696,6 +8070,9 @@
       <c r="N125" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O125" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7754,6 +8131,9 @@
       <c r="N126" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O126" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7812,6 +8192,9 @@
       <c r="N127" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O127" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7870,6 +8253,9 @@
       <c r="N128" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O128" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7928,6 +8314,9 @@
       <c r="N129" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O129" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7986,6 +8375,9 @@
       <c r="N130" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O130" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8044,6 +8436,9 @@
       <c r="N131" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O131" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8102,6 +8497,9 @@
       <c r="N132" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O132" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8160,6 +8558,9 @@
       <c r="N133" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O133" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8218,6 +8619,9 @@
       <c r="N134" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O134" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8276,6 +8680,9 @@
       <c r="N135" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O135" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8334,6 +8741,9 @@
       <c r="N136" t="n">
         <v>36.81241237375587</v>
       </c>
+      <c r="O136" t="n">
+        <v>7.362482474751173</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8392,6 +8802,9 @@
       <c r="N137" t="n">
         <v>36.81241237375587</v>
       </c>
+      <c r="O137" t="n">
+        <v>7.362482474751173</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8450,6 +8863,9 @@
       <c r="N138" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O138" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8508,6 +8924,9 @@
       <c r="N139" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O139" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8566,6 +8985,9 @@
       <c r="N140" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O140" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8624,6 +9046,9 @@
       <c r="N141" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O141" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8682,6 +9107,9 @@
       <c r="N142" t="n">
         <v>36.81241237375587</v>
       </c>
+      <c r="O142" t="n">
+        <v>7.362482474751173</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8740,6 +9168,9 @@
       <c r="N143" t="n">
         <v>36.81241237375587</v>
       </c>
+      <c r="O143" t="n">
+        <v>7.362482474751173</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8798,6 +9229,9 @@
       <c r="N144" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O144" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8856,6 +9290,9 @@
       <c r="N145" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O145" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8914,6 +9351,9 @@
       <c r="N146" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O146" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8972,6 +9412,9 @@
       <c r="N147" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O147" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9030,6 +9473,9 @@
       <c r="N148" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O148" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9088,6 +9534,9 @@
       <c r="N149" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O149" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9146,6 +9595,9 @@
       <c r="N150" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O150" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9204,6 +9656,9 @@
       <c r="N151" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O151" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9262,6 +9717,9 @@
       <c r="N152" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O152" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9320,6 +9778,9 @@
       <c r="N153" t="n">
         <v>36.81241237375587</v>
       </c>
+      <c r="O153" t="n">
+        <v>7.362482474751173</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9378,6 +9839,9 @@
       <c r="N154" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O154" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9436,6 +9900,9 @@
       <c r="N155" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O155" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9494,6 +9961,9 @@
       <c r="N156" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O156" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9552,6 +10022,9 @@
       <c r="N157" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O157" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9610,6 +10083,9 @@
       <c r="N158" t="n">
         <v>36.81241237375587</v>
       </c>
+      <c r="O158" t="n">
+        <v>7.362482474751173</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9668,6 +10144,9 @@
       <c r="N159" t="n">
         <v>36.81241237375587</v>
       </c>
+      <c r="O159" t="n">
+        <v>7.362482474751173</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9726,6 +10205,9 @@
       <c r="N160" t="n">
         <v>36.81241237375587</v>
       </c>
+      <c r="O160" t="n">
+        <v>7.362482474751173</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9784,6 +10266,9 @@
       <c r="N161" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O161" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9842,6 +10327,9 @@
       <c r="N162" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O162" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9900,6 +10388,9 @@
       <c r="N163" t="n">
         <v>36.81241237375587</v>
       </c>
+      <c r="O163" t="n">
+        <v>7.362482474751173</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9958,6 +10449,9 @@
       <c r="N164" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O164" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10016,6 +10510,9 @@
       <c r="N165" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O165" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10074,6 +10571,9 @@
       <c r="N166" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O166" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10132,6 +10632,9 @@
       <c r="N167" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O167" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10190,6 +10693,9 @@
       <c r="N168" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O168" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10248,6 +10754,9 @@
       <c r="N169" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O169" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10306,6 +10815,9 @@
       <c r="N170" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O170" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10364,6 +10876,9 @@
       <c r="N171" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O171" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10422,6 +10937,9 @@
       <c r="N172" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O172" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10480,6 +10998,9 @@
       <c r="N173" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O173" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10538,6 +11059,9 @@
       <c r="N174" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O174" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10596,6 +11120,9 @@
       <c r="N175" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O175" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10654,6 +11181,9 @@
       <c r="N176" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O176" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10712,6 +11242,9 @@
       <c r="N177" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O177" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10770,6 +11303,9 @@
       <c r="N178" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O178" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10828,6 +11364,9 @@
       <c r="N179" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O179" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10886,6 +11425,9 @@
       <c r="N180" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O180" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10944,6 +11486,9 @@
       <c r="N181" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O181" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11002,6 +11547,9 @@
       <c r="N182" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O182" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11060,6 +11608,9 @@
       <c r="N183" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O183" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11118,6 +11669,9 @@
       <c r="N184" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O184" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11176,6 +11730,9 @@
       <c r="N185" t="n">
         <v>36.81241237375587</v>
       </c>
+      <c r="O185" t="n">
+        <v>7.362482474751173</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11234,6 +11791,9 @@
       <c r="N186" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O186" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11292,6 +11852,9 @@
       <c r="N187" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O187" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11350,6 +11913,9 @@
       <c r="N188" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O188" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11408,6 +11974,9 @@
       <c r="N189" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O189" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11466,6 +12035,9 @@
       <c r="N190" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O190" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11524,6 +12096,9 @@
       <c r="N191" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O191" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11582,6 +12157,9 @@
       <c r="N192" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O192" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11640,6 +12218,9 @@
       <c r="N193" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O193" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11698,6 +12279,9 @@
       <c r="N194" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O194" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11756,6 +12340,9 @@
       <c r="N195" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O195" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11814,6 +12401,9 @@
       <c r="N196" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O196" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11872,6 +12462,9 @@
       <c r="N197" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O197" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11930,6 +12523,9 @@
       <c r="N198" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O198" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11988,6 +12584,9 @@
       <c r="N199" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O199" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12046,6 +12645,9 @@
       <c r="N200" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O200" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12104,6 +12706,9 @@
       <c r="N201" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O201" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12162,6 +12767,9 @@
       <c r="N202" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O202" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12220,6 +12828,9 @@
       <c r="N203" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O203" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12278,6 +12889,9 @@
       <c r="N204" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O204" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12336,6 +12950,9 @@
       <c r="N205" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O205" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12394,6 +13011,9 @@
       <c r="N206" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O206" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12452,6 +13072,9 @@
       <c r="N207" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O207" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12510,6 +13133,9 @@
       <c r="N208" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O208" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12568,6 +13194,9 @@
       <c r="N209" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O209" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12626,6 +13255,9 @@
       <c r="N210" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O210" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12684,6 +13316,9 @@
       <c r="N211" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O211" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12742,6 +13377,9 @@
       <c r="N212" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O212" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -12800,6 +13438,9 @@
       <c r="N213" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O213" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -12858,6 +13499,9 @@
       <c r="N214" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O214" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12916,6 +13560,9 @@
       <c r="N215" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O215" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12974,6 +13621,9 @@
       <c r="N216" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O216" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13032,6 +13682,9 @@
       <c r="N217" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O217" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13090,6 +13743,9 @@
       <c r="N218" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O218" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13148,6 +13804,9 @@
       <c r="N219" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O219" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13206,6 +13865,9 @@
       <c r="N220" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O220" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13264,6 +13926,9 @@
       <c r="N221" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O221" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13322,6 +13987,9 @@
       <c r="N222" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O222" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -13380,6 +14048,9 @@
       <c r="N223" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O223" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -13438,6 +14109,9 @@
       <c r="N224" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O224" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -13496,6 +14170,9 @@
       <c r="N225" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O225" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -13554,6 +14231,9 @@
       <c r="N226" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O226" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13612,6 +14292,9 @@
       <c r="N227" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O227" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -13670,6 +14353,9 @@
       <c r="N228" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O228" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -13728,6 +14414,9 @@
       <c r="N229" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O229" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -13786,6 +14475,9 @@
       <c r="N230" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O230" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -13844,6 +14536,9 @@
       <c r="N231" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O231" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -13902,6 +14597,9 @@
       <c r="N232" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O232" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13960,6 +14658,9 @@
       <c r="N233" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O233" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -14018,6 +14719,9 @@
       <c r="N234" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O234" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -14076,6 +14780,9 @@
       <c r="N235" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O235" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -14134,6 +14841,9 @@
       <c r="N236" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O236" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -14192,6 +14902,9 @@
       <c r="N237" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O237" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -14250,6 +14963,9 @@
       <c r="N238" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O238" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -14308,6 +15024,9 @@
       <c r="N239" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O239" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -14366,6 +15085,9 @@
       <c r="N240" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O240" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -14424,6 +15146,9 @@
       <c r="N241" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O241" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -14482,6 +15207,9 @@
       <c r="N242" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O242" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -14540,6 +15268,9 @@
       <c r="N243" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O243" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -14598,6 +15329,9 @@
       <c r="N244" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O244" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -14656,6 +15390,9 @@
       <c r="N245" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O245" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -14714,6 +15451,9 @@
       <c r="N246" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O246" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -14772,6 +15512,9 @@
       <c r="N247" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O247" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -14830,6 +15573,9 @@
       <c r="N248" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O248" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -14888,6 +15634,9 @@
       <c r="N249" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O249" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -14946,6 +15695,9 @@
       <c r="N250" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O250" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -15004,6 +15756,9 @@
       <c r="N251" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O251" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -15062,6 +15817,9 @@
       <c r="N252" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O252" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -15120,6 +15878,9 @@
       <c r="N253" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O253" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -15178,6 +15939,9 @@
       <c r="N254" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O254" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -15236,6 +16000,9 @@
       <c r="N255" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O255" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -15294,6 +16061,9 @@
       <c r="N256" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O256" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -15352,6 +16122,9 @@
       <c r="N257" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O257" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -15410,6 +16183,9 @@
       <c r="N258" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O258" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -15468,6 +16244,9 @@
       <c r="N259" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O259" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -15526,6 +16305,9 @@
       <c r="N260" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O260" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -15584,6 +16366,9 @@
       <c r="N261" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O261" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -15642,6 +16427,9 @@
       <c r="N262" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O262" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -15700,6 +16488,9 @@
       <c r="N263" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O263" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -15758,6 +16549,9 @@
       <c r="N264" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O264" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -15816,6 +16610,9 @@
       <c r="N265" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O265" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -15874,6 +16671,9 @@
       <c r="N266" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O266" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -15932,6 +16732,9 @@
       <c r="N267" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O267" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -15990,6 +16793,9 @@
       <c r="N268" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O268" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -16048,6 +16854,9 @@
       <c r="N269" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O269" t="n">
+        <v>8.715869694000908</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -16106,6 +16915,9 @@
       <c r="N270" t="n">
         <v>42.50420002308893</v>
       </c>
+      <c r="O270" t="n">
+        <v>8.500840004617787</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -16164,6 +16976,9 @@
       <c r="N271" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O271" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -16222,6 +17037,9 @@
       <c r="N272" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O272" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -16280,6 +17098,9 @@
       <c r="N273" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O273" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -16338,6 +17159,9 @@
       <c r="N274" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O274" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -16396,6 +17220,9 @@
       <c r="N275" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O275" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -16454,6 +17281,9 @@
       <c r="N276" t="n">
         <v>36.81241237375587</v>
       </c>
+      <c r="O276" t="n">
+        <v>7.362482474751173</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -16512,6 +17342,9 @@
       <c r="N277" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O277" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -16570,6 +17403,9 @@
       <c r="N278" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O278" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -16627,6 +17463,9 @@
       </c>
       <c r="N279" t="n">
         <v>42.7415784926368</v>
+      </c>
+      <c r="O279" t="n">
+        <v>8.548315698527359</v>
       </c>
     </row>
     <row r="280">
@@ -16678,6 +17517,7 @@
         <v>3476.25</v>
       </c>
       <c r="N280" t="inlineStr"/>
+      <c r="O280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -16728,6 +17568,7 @@
         <v>3558.75</v>
       </c>
       <c r="N281" t="inlineStr"/>
+      <c r="O281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -16778,6 +17619,7 @@
         <v>3553.75</v>
       </c>
       <c r="N282" t="inlineStr"/>
+      <c r="O282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -16828,6 +17670,7 @@
         <v>3486.25</v>
       </c>
       <c r="N283" t="inlineStr"/>
+      <c r="O283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -16878,6 +17721,7 @@
         <v>3486.25</v>
       </c>
       <c r="N284" t="inlineStr"/>
+      <c r="O284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -16928,6 +17772,7 @@
         <v>3568.75</v>
       </c>
       <c r="N285" t="inlineStr"/>
+      <c r="O285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -16978,6 +17823,7 @@
         <v>3476.25</v>
       </c>
       <c r="N286" t="inlineStr"/>
+      <c r="O286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -17028,6 +17874,7 @@
         <v>3558.75</v>
       </c>
       <c r="N287" t="inlineStr"/>
+      <c r="O287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -17078,6 +17925,7 @@
         <v>3558.75</v>
       </c>
       <c r="N288" t="inlineStr"/>
+      <c r="O288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -17128,6 +17976,7 @@
         <v>3548.75</v>
       </c>
       <c r="N289" t="inlineStr"/>
+      <c r="O289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -17178,6 +18027,7 @@
         <v>3558.75</v>
       </c>
       <c r="N290" t="inlineStr"/>
+      <c r="O290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -17228,6 +18078,7 @@
         <v>3563.75</v>
       </c>
       <c r="N291" t="inlineStr"/>
+      <c r="O291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -17278,6 +18129,7 @@
         <v>3568.75</v>
       </c>
       <c r="N292" t="inlineStr"/>
+      <c r="O292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -17328,6 +18180,7 @@
         <v>3476.25</v>
       </c>
       <c r="N293" t="inlineStr"/>
+      <c r="O293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -17386,6 +18239,9 @@
       <c r="N294" t="n">
         <v>41.55336037465062</v>
       </c>
+      <c r="O294" t="n">
+        <v>5.936194339235803</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -17443,6 +18299,9 @@
       </c>
       <c r="N295" t="n">
         <v>36.33468455579587</v>
+      </c>
+      <c r="O295" t="n">
+        <v>5.190669222256552</v>
       </c>
     </row>
     <row r="296">
@@ -17494,6 +18353,7 @@
         <v>3439</v>
       </c>
       <c r="N296" t="inlineStr"/>
+      <c r="O296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -17552,6 +18412,9 @@
       <c r="N297" t="n">
         <v>36.02059991327963</v>
       </c>
+      <c r="O297" t="n">
+        <v>2.572899993805688</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -17610,6 +18473,9 @@
       <c r="N298" t="n">
         <v>40.60697840353612</v>
       </c>
+      <c r="O298" t="n">
+        <v>5.800996914790874</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -17668,6 +18534,9 @@
       <c r="N299" t="n">
         <v>38.63322860120456</v>
       </c>
+      <c r="O299" t="n">
+        <v>5.519032657314937</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -17726,6 +18595,9 @@
       <c r="N300" t="n">
         <v>39.68482948553935</v>
       </c>
+      <c r="O300" t="n">
+        <v>5.66926135507705</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -17784,6 +18656,9 @@
       <c r="N301" t="n">
         <v>39.13813852383717</v>
       </c>
+      <c r="O301" t="n">
+        <v>2.795581323131227</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -17842,6 +18717,9 @@
       <c r="N302" t="n">
         <v>40.89905111439398</v>
       </c>
+      <c r="O302" t="n">
+        <v>5.842721587770569</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -17900,6 +18778,9 @@
       <c r="N303" t="n">
         <v>40.89905111439398</v>
       </c>
+      <c r="O303" t="n">
+        <v>5.842721587770569</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -17958,6 +18839,9 @@
       <c r="N304" t="n">
         <v>35.44068044350276</v>
       </c>
+      <c r="O304" t="n">
+        <v>2.531477174535911</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -18016,6 +18900,9 @@
       <c r="N305" t="n">
         <v>38.32508912706236</v>
       </c>
+      <c r="O305" t="n">
+        <v>5.47501273243748</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -18074,6 +18961,9 @@
       <c r="N306" t="n">
         <v>37.40362689494243</v>
       </c>
+      <c r="O306" t="n">
+        <v>5.343375270706062</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -18132,6 +19022,9 @@
       <c r="N307" t="n">
         <v>31.13943352306837</v>
       </c>
+      <c r="O307" t="n">
+        <v>4.448490503295481</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -18190,6 +19083,9 @@
       <c r="N308" t="n">
         <v>39.68482948553935</v>
       </c>
+      <c r="O308" t="n">
+        <v>2.834630677538525</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -18248,6 +19144,9 @@
       <c r="N309" t="n">
         <v>42.35528446907549</v>
       </c>
+      <c r="O309" t="n">
+        <v>3.025377462076821</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -18306,6 +19205,9 @@
       <c r="N310" t="n">
         <v>40.2938377768521</v>
       </c>
+      <c r="O310" t="n">
+        <v>5.7562625395503</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -18364,6 +19266,9 @@
       <c r="N311" t="n">
         <v>37.481880270062</v>
       </c>
+      <c r="O311" t="n">
+        <v>5.354554324294571</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -18422,6 +19327,9 @@
       <c r="N312" t="n">
         <v>40.71882007306125</v>
       </c>
+      <c r="O312" t="n">
+        <v>5.816974296151607</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -18480,6 +19388,9 @@
       <c r="N313" t="n">
         <v>37.481880270062</v>
       </c>
+      <c r="O313" t="n">
+        <v>5.354554324294571</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -18538,6 +19449,9 @@
       <c r="N314" t="n">
         <v>37.99340549453581</v>
       </c>
+      <c r="O314" t="n">
+        <v>2.71381467818113</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -18596,6 +19510,9 @@
       <c r="N315" t="n">
         <v>41.2057393120585</v>
       </c>
+      <c r="O315" t="n">
+        <v>5.886534187436928</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -18653,6 +19570,9 @@
       </c>
       <c r="N316" t="n">
         <v>39.54242509439324</v>
+      </c>
+      <c r="O316" t="n">
+        <v>2.824458935313803</v>
       </c>
     </row>
     <row r="317">
@@ -18704,6 +19624,7 @@
         <v>3460</v>
       </c>
       <c r="N317" t="inlineStr"/>
+      <c r="O317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -18754,6 +19675,7 @@
         <v>3425</v>
       </c>
       <c r="N318" t="inlineStr"/>
+      <c r="O318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -18812,6 +19734,9 @@
       <c r="N319" t="n">
         <v>42.30448921378274</v>
       </c>
+      <c r="O319" t="n">
+        <v>6.043498459111821</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -18870,6 +19795,9 @@
       <c r="N320" t="n">
         <v>37.85329835010767</v>
       </c>
+      <c r="O320" t="n">
+        <v>2.703807025007691</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -18928,6 +19856,9 @@
       <c r="N321" t="n">
         <v>40.12837224705172</v>
       </c>
+      <c r="O321" t="n">
+        <v>2.866312303360837</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -18986,6 +19917,9 @@
       <c r="N322" t="n">
         <v>41.23851640967086</v>
       </c>
+      <c r="O322" t="n">
+        <v>5.89121662995298</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -19044,6 +19978,9 @@
       <c r="N323" t="n">
         <v>40.79181246047625</v>
       </c>
+      <c r="O323" t="n">
+        <v>5.827401780068036</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -19101,6 +20038,9 @@
       </c>
       <c r="N324" t="n">
         <v>39.59041392321093</v>
+      </c>
+      <c r="O324" t="n">
+        <v>11.31154683520312</v>
       </c>
     </row>
     <row r="325">
@@ -19152,6 +20092,7 @@
         <v>3425</v>
       </c>
       <c r="N325" t="inlineStr"/>
+      <c r="O325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -19202,6 +20143,7 @@
         <v>3439</v>
       </c>
       <c r="N326" t="inlineStr"/>
+      <c r="O326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -19252,6 +20194,7 @@
         <v>3425</v>
       </c>
       <c r="N327" t="inlineStr"/>
+      <c r="O327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -19310,6 +20253,9 @@
       <c r="N328" t="n">
         <v>40.8278537031645</v>
       </c>
+      <c r="O328" t="n">
+        <v>5.8325505290235</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -19368,6 +20314,9 @@
       <c r="N329" t="n">
         <v>40.79181246047625</v>
       </c>
+      <c r="O329" t="n">
+        <v>2.913700890034018</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -19426,6 +20375,9 @@
       <c r="N330" t="n">
         <v>42.12187604403958</v>
       </c>
+      <c r="O330" t="n">
+        <v>3.008705431717113</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -19484,6 +20436,9 @@
       <c r="N331" t="n">
         <v>39.19078092376074</v>
       </c>
+      <c r="O331" t="n">
+        <v>2.799341494554338</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -19542,6 +20497,9 @@
       <c r="N332" t="n">
         <v>39.0848501887865</v>
       </c>
+      <c r="O332" t="n">
+        <v>5.583550026969499</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -19599,6 +20557,9 @@
       </c>
       <c r="N333" t="n">
         <v>40.2530586526477</v>
+      </c>
+      <c r="O333" t="n">
+        <v>5.750436950378243</v>
       </c>
     </row>
     <row r="334">
@@ -19650,6 +20611,7 @@
         <v>3453</v>
       </c>
       <c r="N334" t="inlineStr"/>
+      <c r="O334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -19708,6 +20670,9 @@
       <c r="N335" t="n">
         <v>39.03089986991944</v>
       </c>
+      <c r="O335" t="n">
+        <v>2.78792141927996</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -19766,6 +20731,9 @@
       <c r="N336" t="n">
         <v>33.61727836017593</v>
       </c>
+      <c r="O336" t="n">
+        <v>4.80246833716799</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -19823,6 +20791,9 @@
       </c>
       <c r="N337" t="n">
         <v>32.04119982655924</v>
+      </c>
+      <c r="O337" t="n">
+        <v>2.288657130468517</v>
       </c>
     </row>
     <row r="338">
@@ -19874,6 +20845,7 @@
         <v>3425</v>
       </c>
       <c r="N338" t="inlineStr"/>
+      <c r="O338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -19932,6 +20904,9 @@
       <c r="N339" t="n">
         <v>36.33468455579587</v>
       </c>
+      <c r="O339" t="n">
+        <v>2.595334611128276</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -19990,6 +20965,9 @@
       <c r="N340" t="n">
         <v>31.13943352306837</v>
       </c>
+      <c r="O340" t="n">
+        <v>4.448490503295481</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -20047,6 +21025,9 @@
       </c>
       <c r="N341" t="n">
         <v>41.23851640967086</v>
+      </c>
+      <c r="O341" t="n">
+        <v>5.89121662995298</v>
       </c>
     </row>
     <row r="342">
@@ -20098,6 +21079,7 @@
         <v>3460</v>
       </c>
       <c r="N342" t="inlineStr"/>
+      <c r="O342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -20156,6 +21138,9 @@
       <c r="N343" t="n">
         <v>39.03089986991944</v>
       </c>
+      <c r="O343" t="n">
+        <v>5.57584283855992</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -20214,6 +21199,9 @@
       <c r="N344" t="n">
         <v>36.72097857935717</v>
       </c>
+      <c r="O344" t="n">
+        <v>2.622927041382655</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -20272,6 +21260,9 @@
       <c r="N345" t="n">
         <v>33.61727836017593</v>
       </c>
+      <c r="O345" t="n">
+        <v>2.401234168583995</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -20330,6 +21321,9 @@
       <c r="N346" t="n">
         <v>37.99340549453581</v>
       </c>
+      <c r="O346" t="n">
+        <v>2.71381467818113</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -20388,6 +21382,9 @@
       <c r="N347" t="n">
         <v>41.84691430817598</v>
       </c>
+      <c r="O347" t="n">
+        <v>5.978130615453712</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -20445,6 +21442,9 @@
       </c>
       <c r="N348" t="n">
         <v>41.23851640967086</v>
+      </c>
+      <c r="O348" t="n">
+        <v>5.89121662995298</v>
       </c>
     </row>
     <row r="349">
@@ -20496,6 +21496,7 @@
         <v>3425</v>
       </c>
       <c r="N349" t="inlineStr"/>
+      <c r="O349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -20546,6 +21547,7 @@
         <v>3439</v>
       </c>
       <c r="N350" t="inlineStr"/>
+      <c r="O350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -20603,6 +21605,9 @@
       </c>
       <c r="N351" t="n">
         <v>39.68482948553935</v>
+      </c>
+      <c r="O351" t="n">
+        <v>2.834630677538525</v>
       </c>
     </row>
     <row r="352">
@@ -20654,6 +21659,7 @@
         <v>3460</v>
       </c>
       <c r="N352" t="inlineStr"/>
+      <c r="O352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -20712,6 +21718,9 @@
       <c r="N353" t="n">
         <v>38.63322860120456</v>
       </c>
+      <c r="O353" t="n">
+        <v>2.759516328657468</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -20770,6 +21779,9 @@
       <c r="N354" t="n">
         <v>37.92391689498254</v>
       </c>
+      <c r="O354" t="n">
+        <v>2.708851206784467</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -20828,6 +21840,9 @@
       <c r="N355" t="n">
         <v>39.63787827345555</v>
       </c>
+      <c r="O355" t="n">
+        <v>2.831277019532539</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -20886,6 +21901,9 @@
       <c r="N356" t="n">
         <v>39.68482948553935</v>
       </c>
+      <c r="O356" t="n">
+        <v>2.834630677538525</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -20944,6 +21962,9 @@
       <c r="N357" t="n">
         <v>36.33468455579587</v>
       </c>
+      <c r="O357" t="n">
+        <v>2.595334611128276</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -21002,6 +22023,9 @@
       <c r="N358" t="n">
         <v>37.78151250383643</v>
       </c>
+      <c r="O358" t="n">
+        <v>2.698679464559745</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -21060,6 +22084,9 @@
       <c r="N359" t="n">
         <v>40.04321373782642</v>
       </c>
+      <c r="O359" t="n">
+        <v>5.720459105403775</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -21118,6 +22145,9 @@
       <c r="N360" t="n">
         <v>39.19078092376074</v>
       </c>
+      <c r="O360" t="n">
+        <v>5.598682989108677</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -21176,6 +22206,9 @@
       <c r="N361" t="n">
         <v>33.61727836017593</v>
       </c>
+      <c r="O361" t="n">
+        <v>2.401234168583995</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -21233,6 +22266,9 @@
       </c>
       <c r="N362" t="n">
         <v>39.19078092376074</v>
+      </c>
+      <c r="O362" t="n">
+        <v>5.598682989108677</v>
       </c>
     </row>
     <row r="363">
@@ -21284,6 +22320,7 @@
         <v>3463.5</v>
       </c>
       <c r="N363" t="inlineStr"/>
+      <c r="O363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -21342,6 +22379,9 @@
       <c r="N364" t="n">
         <v>39.0848501887865</v>
       </c>
+      <c r="O364" t="n">
+        <v>2.79177501348475</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -21400,6 +22440,9 @@
       <c r="N365" t="n">
         <v>35.05149978319906</v>
       </c>
+      <c r="O365" t="n">
+        <v>5.00735711188558</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -21458,6 +22501,9 @@
       <c r="N366" t="n">
         <v>39.03089986991944</v>
       </c>
+      <c r="O366" t="n">
+        <v>2.78792141927996</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -21516,6 +22562,9 @@
       <c r="N367" t="n">
         <v>40.41392685158225</v>
       </c>
+      <c r="O367" t="n">
+        <v>2.886709060827304</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -21574,6 +22623,9 @@
       <c r="N368" t="n">
         <v>42.30448921378274</v>
       </c>
+      <c r="O368" t="n">
+        <v>6.043498459111821</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -21632,6 +22684,9 @@
       <c r="N369" t="n">
         <v>40.12837224705172</v>
       </c>
+      <c r="O369" t="n">
+        <v>2.866312303360837</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -21690,6 +22745,9 @@
       <c r="N370" t="n">
         <v>41.98657086954422</v>
       </c>
+      <c r="O370" t="n">
+        <v>5.998081552792032</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -21748,6 +22806,9 @@
       <c r="N371" t="n">
         <v>26.02059991327963</v>
       </c>
+      <c r="O371" t="n">
+        <v>3.717228559039946</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -21806,6 +22867,9 @@
       <c r="N372" t="n">
         <v>39.68482948553935</v>
       </c>
+      <c r="O372" t="n">
+        <v>5.66926135507705</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -21864,6 +22928,9 @@
       <c r="N373" t="n">
         <v>39.19078092376074</v>
       </c>
+      <c r="O373" t="n">
+        <v>2.799341494554338</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -21922,6 +22989,9 @@
       <c r="N374" t="n">
         <v>41.55336037465062</v>
       </c>
+      <c r="O374" t="n">
+        <v>5.936194339235803</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -21980,6 +23050,9 @@
       <c r="N375" t="n">
         <v>41.23851640967086</v>
       </c>
+      <c r="O375" t="n">
+        <v>5.89121662995298</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -22038,6 +23111,9 @@
       <c r="N376" t="n">
         <v>40.12837224705172</v>
       </c>
+      <c r="O376" t="n">
+        <v>5.732624606721674</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -22096,6 +23172,9 @@
       <c r="N377" t="n">
         <v>39.13813852383717</v>
       </c>
+      <c r="O377" t="n">
+        <v>5.591162646262453</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -22154,6 +23233,9 @@
       <c r="N378" t="n">
         <v>40.89905111439398</v>
       </c>
+      <c r="O378" t="n">
+        <v>5.842721587770569</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -22212,6 +23294,9 @@
       <c r="N379" t="n">
         <v>40.79181246047625</v>
       </c>
+      <c r="O379" t="n">
+        <v>2.913700890034018</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -22270,6 +23355,9 @@
       <c r="N380" t="n">
         <v>40.89905111439398</v>
       </c>
+      <c r="O380" t="n">
+        <v>5.842721587770569</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -22328,6 +23416,9 @@
       <c r="N381" t="n">
         <v>42.6245108973043</v>
       </c>
+      <c r="O381" t="n">
+        <v>6.089215842472043</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -22386,6 +23477,9 @@
       <c r="N382" t="n">
         <v>41.52288344383057</v>
       </c>
+      <c r="O382" t="n">
+        <v>5.931840491975795</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -22444,6 +23538,9 @@
       <c r="N383" t="n">
         <v>40.86359830674748</v>
       </c>
+      <c r="O383" t="n">
+        <v>5.837656900963927</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -22502,6 +23599,9 @@
       <c r="N384" t="n">
         <v>38.51258348719075</v>
       </c>
+      <c r="O384" t="n">
+        <v>5.501797641027251</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -22560,6 +23660,9 @@
       <c r="N385" t="n">
         <v>40.21189299069938</v>
       </c>
+      <c r="O385" t="n">
+        <v>2.872278070764242</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -22618,6 +23721,9 @@
       <c r="N386" t="n">
         <v>42.85557309007774</v>
       </c>
+      <c r="O386" t="n">
+        <v>6.122224727153963</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -22676,6 +23782,9 @@
       <c r="N387" t="n">
         <v>29.54242509439325</v>
       </c>
+      <c r="O387" t="n">
+        <v>4.220346442056178</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -22734,6 +23843,9 @@
       <c r="N388" t="n">
         <v>37.63427993562937</v>
       </c>
+      <c r="O388" t="n">
+        <v>5.37632570508991</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -22791,6 +23903,9 @@
       </c>
       <c r="N389" t="n">
         <v>37.99340549453581</v>
+      </c>
+      <c r="O389" t="n">
+        <v>5.427629356362259</v>
       </c>
     </row>
     <row r="390">
@@ -22842,6 +23957,7 @@
         <v>3453</v>
       </c>
       <c r="N390" t="inlineStr"/>
+      <c r="O390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -22900,6 +24016,9 @@
       <c r="N391" t="n">
         <v>41.46128035678238</v>
       </c>
+      <c r="O391" t="n">
+        <v>5.923040050968912</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -22958,6 +24077,9 @@
       <c r="N392" t="n">
         <v>29.03089986991944</v>
       </c>
+      <c r="O392" t="n">
+        <v>2.073635704994246</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -23016,6 +24138,9 @@
       <c r="N393" t="n">
         <v>42.30448921378274</v>
       </c>
+      <c r="O393" t="n">
+        <v>6.043498459111821</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -23074,6 +24199,9 @@
       <c r="N394" t="n">
         <v>35.05149978319906</v>
       </c>
+      <c r="O394" t="n">
+        <v>5.00735711188558</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -23132,6 +24260,9 @@
       <c r="N395" t="n">
         <v>40.12837224705172</v>
       </c>
+      <c r="O395" t="n">
+        <v>2.866312303360837</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -23190,6 +24321,9 @@
       <c r="N396" t="n">
         <v>40.49218022670182</v>
       </c>
+      <c r="O396" t="n">
+        <v>5.784597175243117</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -23248,6 +24382,9 @@
       <c r="N397" t="n">
         <v>41.55336037465062</v>
       </c>
+      <c r="O397" t="n">
+        <v>5.936194339235803</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -23306,6 +24443,9 @@
       <c r="N398" t="n">
         <v>40.89905111439398</v>
       </c>
+      <c r="O398" t="n">
+        <v>2.921360793885285</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -23364,6 +24504,9 @@
       <c r="N399" t="n">
         <v>39.91226075692494</v>
       </c>
+      <c r="O399" t="n">
+        <v>2.850875768351782</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -23422,6 +24565,9 @@
       <c r="N400" t="n">
         <v>39.03089986991944</v>
       </c>
+      <c r="O400" t="n">
+        <v>5.57584283855992</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -23480,6 +24626,9 @@
       <c r="N401" t="n">
         <v>38.63322860120456</v>
       </c>
+      <c r="O401" t="n">
+        <v>2.759516328657468</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -23538,6 +24687,9 @@
       <c r="N402" t="n">
         <v>41.13943352306837</v>
       </c>
+      <c r="O402" t="n">
+        <v>2.938530965933455</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -23596,6 +24748,9 @@
       <c r="N403" t="n">
         <v>26.98970004336019</v>
       </c>
+      <c r="O403" t="n">
+        <v>3.855671434765741</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -23654,6 +24809,9 @@
       <c r="N404" t="n">
         <v>41.13943352306837</v>
       </c>
+      <c r="O404" t="n">
+        <v>2.938530965933455</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -23712,6 +24870,9 @@
       <c r="N405" t="n">
         <v>40.89905111439398</v>
       </c>
+      <c r="O405" t="n">
+        <v>5.842721587770569</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -23770,6 +24931,9 @@
       <c r="N406" t="n">
         <v>35.18513939877887</v>
       </c>
+      <c r="O406" t="n">
+        <v>2.513224242769919</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -23828,6 +24992,9 @@
       <c r="N407" t="n">
         <v>41.23851640967086</v>
       </c>
+      <c r="O407" t="n">
+        <v>5.89121662995298</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -23886,6 +25053,9 @@
       <c r="N408" t="n">
         <v>42.12187604403958</v>
       </c>
+      <c r="O408" t="n">
+        <v>6.017410863434226</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -23944,6 +25114,9 @@
       <c r="N409" t="n">
         <v>40.12837224705172</v>
       </c>
+      <c r="O409" t="n">
+        <v>2.866312303360837</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -24002,6 +25175,9 @@
       <c r="N410" t="n">
         <v>40.86359830674748</v>
       </c>
+      <c r="O410" t="n">
+        <v>5.837656900963927</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -24060,6 +25236,9 @@
       <c r="N411" t="n">
         <v>39.77723605288848</v>
       </c>
+      <c r="O411" t="n">
+        <v>2.841231146634891</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -24118,6 +25297,9 @@
       <c r="N412" t="n">
         <v>41.98657086954422</v>
       </c>
+      <c r="O412" t="n">
+        <v>5.998081552792032</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -24176,6 +25358,9 @@
       <c r="N413" t="n">
         <v>37.481880270062</v>
       </c>
+      <c r="O413" t="n">
+        <v>5.354554324294571</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -24233,6 +25418,9 @@
       </c>
       <c r="N414" t="n">
         <v>39.0848501887865</v>
+      </c>
+      <c r="O414" t="n">
+        <v>5.583550026969499</v>
       </c>
     </row>
     <row r="415">
@@ -24284,6 +25472,7 @@
         <v>3453</v>
       </c>
       <c r="N415" t="inlineStr"/>
+      <c r="O415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -24342,6 +25531,9 @@
       <c r="N416" t="n">
         <v>38.63322860120456</v>
       </c>
+      <c r="O416" t="n">
+        <v>2.759516328657468</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -24400,6 +25592,9 @@
       <c r="N417" t="n">
         <v>37.24275869600789</v>
       </c>
+      <c r="O417" t="n">
+        <v>5.320394099429699</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -24458,6 +25653,9 @@
       <c r="N418" t="n">
         <v>40.12837224705172</v>
       </c>
+      <c r="O418" t="n">
+        <v>2.866312303360837</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -24516,6 +25714,9 @@
       <c r="N419" t="n">
         <v>41.23851640967086</v>
       </c>
+      <c r="O419" t="n">
+        <v>5.89121662995298</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -24574,6 +25775,9 @@
       <c r="N420" t="n">
         <v>40.89905111439398</v>
       </c>
+      <c r="O420" t="n">
+        <v>5.842721587770569</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -24632,6 +25836,9 @@
       <c r="N421" t="n">
         <v>40.89905111439398</v>
       </c>
+      <c r="O421" t="n">
+        <v>2.921360793885285</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -24690,6 +25897,9 @@
       <c r="N422" t="n">
         <v>40.89905111439398</v>
       </c>
+      <c r="O422" t="n">
+        <v>2.921360793885285</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -24748,6 +25958,9 @@
       <c r="N423" t="n">
         <v>39.19078092376074</v>
       </c>
+      <c r="O423" t="n">
+        <v>5.598682989108677</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -24805,6 +26018,9 @@
       </c>
       <c r="N424" t="n">
         <v>37.63427993562937</v>
+      </c>
+      <c r="O424" t="n">
+        <v>5.37632570508991</v>
       </c>
     </row>
     <row r="425">
@@ -24856,6 +26072,7 @@
         <v>3425</v>
       </c>
       <c r="N425" t="inlineStr"/>
+      <c r="O425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -24906,6 +26123,7 @@
         <v>3460</v>
       </c>
       <c r="N426" t="inlineStr"/>
+      <c r="O426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -24956,6 +26174,7 @@
         <v>3460</v>
       </c>
       <c r="N427" t="inlineStr"/>
+      <c r="O427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -25006,6 +26225,7 @@
         <v>3460</v>
       </c>
       <c r="N428" t="inlineStr"/>
+      <c r="O428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -25064,6 +26284,9 @@
       <c r="N429" t="n">
         <v>40.5307844348342</v>
       </c>
+      <c r="O429" t="n">
+        <v>11.58022412423834</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -25122,6 +26345,9 @@
       <c r="N430" t="n">
         <v>39.13813852383717</v>
       </c>
+      <c r="O430" t="n">
+        <v>2.795581323131227</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -25180,6 +26406,9 @@
       <c r="N431" t="n">
         <v>39.03089986991944</v>
       </c>
+      <c r="O431" t="n">
+        <v>2.78792141927996</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -25237,6 +26466,9 @@
       </c>
       <c r="N432" t="n">
         <v>35.18513939877887</v>
+      </c>
+      <c r="O432" t="n">
+        <v>2.513224242769919</v>
       </c>
     </row>
     <row r="433">
@@ -25288,6 +26520,7 @@
         <v>3425</v>
       </c>
       <c r="N433" t="inlineStr"/>
+      <c r="O433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -25346,6 +26579,9 @@
       <c r="N434" t="n">
         <v>41.23851640967086</v>
       </c>
+      <c r="O434" t="n">
+        <v>2.94560831497649</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -25404,6 +26640,9 @@
       <c r="N435" t="n">
         <v>42.38046103128795</v>
       </c>
+      <c r="O435" t="n">
+        <v>3.027175787949139</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -25461,6 +26700,9 @@
       </c>
       <c r="N436" t="n">
         <v>24.77121254719663</v>
+      </c>
+      <c r="O436" t="n">
+        <v>1.769372324799759</v>
       </c>
     </row>
     <row r="437">
@@ -25512,6 +26754,7 @@
         <v>3425</v>
       </c>
       <c r="N437" t="inlineStr"/>
+      <c r="O437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -25570,6 +26813,9 @@
       <c r="N438" t="n">
         <v>33.01029995663981</v>
       </c>
+      <c r="O438" t="n">
+        <v>2.357878568331415</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -25628,6 +26874,9 @@
       <c r="N439" t="n">
         <v>40.08600171761918</v>
       </c>
+      <c r="O439" t="n">
+        <v>2.863285836972799</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -25686,6 +26935,9 @@
       <c r="N440" t="n">
         <v>41.13943352306837</v>
       </c>
+      <c r="O440" t="n">
+        <v>2.938530965933455</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -25744,6 +26996,9 @@
       <c r="N441" t="n">
         <v>36.98970004336019</v>
       </c>
+      <c r="O441" t="n">
+        <v>2.642121431668585</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -25801,6 +27056,9 @@
       </c>
       <c r="N442" t="n">
         <v>34.77121254719663</v>
+      </c>
+      <c r="O442" t="n">
+        <v>2.483658039085473</v>
       </c>
     </row>
     <row r="443">
@@ -25852,6 +27110,7 @@
         <v>3453</v>
       </c>
       <c r="N443" t="inlineStr"/>
+      <c r="O443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -25909,6 +27168,9 @@
       </c>
       <c r="N444" t="n">
         <v>35.18513939877887</v>
+      </c>
+      <c r="O444" t="n">
+        <v>2.513224242769919</v>
       </c>
     </row>
     <row r="445">
@@ -25960,6 +27222,7 @@
         <v>3425</v>
       </c>
       <c r="N445" t="inlineStr"/>
+      <c r="O445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -26017,6 +27280,9 @@
       </c>
       <c r="N446" t="n">
         <v>35.18513939877887</v>
+      </c>
+      <c r="O446" t="n">
+        <v>2.513224242769919</v>
       </c>
     </row>
     <row r="447">
@@ -26068,6 +27334,7 @@
         <v>3425</v>
       </c>
       <c r="N447" t="inlineStr"/>
+      <c r="O447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -26125,6 +27392,9 @@
       </c>
       <c r="N448" t="n">
         <v>40.79181246047625</v>
+      </c>
+      <c r="O448" t="n">
+        <v>2.913700890034018</v>
       </c>
     </row>
     <row r="449">
@@ -26176,6 +27446,7 @@
         <v>3442.5</v>
       </c>
       <c r="N449" t="inlineStr"/>
+      <c r="O449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -26226,6 +27497,7 @@
         <v>3439</v>
       </c>
       <c r="N450" t="inlineStr"/>
+      <c r="O450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -26284,6 +27556,9 @@
       <c r="N451" t="n">
         <v>33.97940008672037</v>
       </c>
+      <c r="O451" t="n">
+        <v>3.236133341592417</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -26342,6 +27617,9 @@
       <c r="N452" t="n">
         <v>33.97940008672037</v>
       </c>
+      <c r="O452" t="n">
+        <v>9.70840002477725</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -26400,6 +27678,9 @@
       <c r="N453" t="n">
         <v>38.12913356642856</v>
       </c>
+      <c r="O453" t="n">
+        <v>3.631346053945577</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -26458,6 +27739,9 @@
       <c r="N454" t="n">
         <v>38.12913356642856</v>
       </c>
+      <c r="O454" t="n">
+        <v>10.89403816183673</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -26516,6 +27800,9 @@
       <c r="N455" t="n">
         <v>40.08600171761918</v>
       </c>
+      <c r="O455" t="n">
+        <v>3.817714449297065</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -26574,6 +27861,9 @@
       <c r="N456" t="n">
         <v>40.08600171761918</v>
       </c>
+      <c r="O456" t="n">
+        <v>11.4531433478912</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -26632,6 +27922,9 @@
       <c r="N457" t="n">
         <v>26.98970004336019</v>
       </c>
+      <c r="O457" t="n">
+        <v>2.570447623177161</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -26690,6 +27983,9 @@
       <c r="N458" t="n">
         <v>26.98970004336019</v>
       </c>
+      <c r="O458" t="n">
+        <v>7.711342869531483</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -26748,6 +28044,9 @@
       <c r="N459" t="n">
         <v>39.73127853599699</v>
       </c>
+      <c r="O459" t="n">
+        <v>3.78393128914257</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -26805,6 +28104,9 @@
       </c>
       <c r="N460" t="n">
         <v>39.73127853599699</v>
+      </c>
+      <c r="O460" t="n">
+        <v>11.35179386742771</v>
       </c>
     </row>
     <row r="461">
@@ -26856,6 +28158,7 @@
         <v>3442.5</v>
       </c>
       <c r="N461" t="inlineStr"/>
+      <c r="O461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -26906,6 +28209,7 @@
         <v>3439</v>
       </c>
       <c r="N462" t="inlineStr"/>
+      <c r="O462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -26964,6 +28268,9 @@
       <c r="N463" t="n">
         <v>37.32393759822968</v>
       </c>
+      <c r="O463" t="n">
+        <v>3.554660723640922</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -27022,6 +28329,9 @@
       <c r="N464" t="n">
         <v>37.32393759822968</v>
       </c>
+      <c r="O464" t="n">
+        <v>10.66398217092277</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -27080,6 +28390,9 @@
       <c r="N465" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O465" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -27138,6 +28451,9 @@
       <c r="N466" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O466" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -27196,6 +28512,9 @@
       <c r="N467" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O467" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -27254,6 +28573,9 @@
       <c r="N468" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O468" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -27312,6 +28634,9 @@
       <c r="N469" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O469" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -27370,6 +28695,9 @@
       <c r="N470" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O470" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -27428,6 +28756,9 @@
       <c r="N471" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O471" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -27486,6 +28817,9 @@
       <c r="N472" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O472" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -27544,6 +28878,9 @@
       <c r="N473" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O473" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -27602,6 +28939,9 @@
       <c r="N474" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O474" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -27660,6 +29000,9 @@
       <c r="N475" t="n">
         <v>41.70261715394957</v>
       </c>
+      <c r="O475" t="n">
+        <v>8.340523430789915</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -27718,6 +29061,9 @@
       <c r="N476" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O476" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -27776,6 +29122,9 @@
       <c r="N477" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O477" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -27834,6 +29183,9 @@
       <c r="N478" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O478" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -27892,6 +29244,9 @@
       <c r="N479" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O479" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -27950,6 +29305,9 @@
       <c r="N480" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O480" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -28008,6 +29366,9 @@
       <c r="N481" t="n">
         <v>43.18063334962762</v>
       </c>
+      <c r="O481" t="n">
+        <v>8.636126669925524</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -28066,6 +29427,9 @@
       <c r="N482" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O482" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -28124,6 +29488,9 @@
       <c r="N483" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O483" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -28182,6 +29549,9 @@
       <c r="N484" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O484" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -28240,6 +29610,9 @@
       <c r="N485" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O485" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -28298,6 +29671,9 @@
       <c r="N486" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O486" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -28356,6 +29732,9 @@
       <c r="N487" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O487" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -28414,6 +29793,9 @@
       <c r="N488" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O488" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -28472,6 +29854,9 @@
       <c r="N489" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O489" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -28530,6 +29915,9 @@
       <c r="N490" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O490" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -28588,6 +29976,9 @@
       <c r="N491" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O491" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -28646,6 +30037,9 @@
       <c r="N492" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O492" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -28704,6 +30098,9 @@
       <c r="N493" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O493" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -28762,6 +30159,9 @@
       <c r="N494" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O494" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -28820,6 +30220,9 @@
       <c r="N495" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O495" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -28878,6 +30281,9 @@
       <c r="N496" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O496" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -28936,6 +30342,9 @@
       <c r="N497" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O497" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -28994,6 +30403,9 @@
       <c r="N498" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O498" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -29052,6 +30464,9 @@
       <c r="N499" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O499" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -29110,6 +30525,9 @@
       <c r="N500" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O500" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -29168,6 +30586,9 @@
       <c r="N501" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O501" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -29226,6 +30647,9 @@
       <c r="N502" t="n">
         <v>43.57934847000454</v>
       </c>
+      <c r="O502" t="n">
+        <v>21.78967423500227</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -29284,6 +30708,9 @@
       <c r="N503" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O503" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -29342,6 +30769,9 @@
       <c r="N504" t="n">
         <v>42.7415784926368</v>
       </c>
+      <c r="O504" t="n">
+        <v>8.548315698527359</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -29400,6 +30830,9 @@
       <c r="N505" t="n">
         <v>42.6245108973043</v>
       </c>
+      <c r="O505" t="n">
+        <v>6.089215842472043</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -29458,6 +30891,9 @@
       <c r="N506" t="n">
         <v>41.93124598354461</v>
       </c>
+      <c r="O506" t="n">
+        <v>5.990177997649231</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -29516,6 +30952,9 @@
       <c r="N507" t="n">
         <v>40.3342375548695</v>
       </c>
+      <c r="O507" t="n">
+        <v>8.066847510973899</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -29574,6 +31013,9 @@
       <c r="N508" t="n">
         <v>39.34498451243568</v>
       </c>
+      <c r="O508" t="n">
+        <v>5.620712073205097</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -29632,6 +31074,9 @@
       <c r="N509" t="n">
         <v>35.56302500767287</v>
       </c>
+      <c r="O509" t="n">
+        <v>5.080432143953267</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -29690,6 +31135,9 @@
       <c r="N510" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O510" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -29748,6 +31196,9 @@
       <c r="N511" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O511" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -29806,6 +31257,9 @@
       <c r="N512" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O512" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -29864,6 +31318,9 @@
       <c r="N513" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O513" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -29922,6 +31379,9 @@
       <c r="N514" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O514" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -29980,6 +31440,9 @@
       <c r="N515" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O515" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -30038,6 +31501,9 @@
       <c r="N516" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O516" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -30096,6 +31562,9 @@
       <c r="N517" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O517" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -30154,6 +31623,9 @@
       <c r="N518" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O518" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -30212,6 +31684,9 @@
       <c r="N519" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O519" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -30270,6 +31745,9 @@
       <c r="N520" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O520" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -30328,6 +31806,9 @@
       <c r="N521" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O521" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -30386,6 +31867,9 @@
       <c r="N522" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O522" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -30444,6 +31928,9 @@
       <c r="N523" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O523" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -30502,6 +31989,9 @@
       <c r="N524" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O524" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -30560,6 +32050,9 @@
       <c r="N525" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O525" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -30618,6 +32111,9 @@
       <c r="N526" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O526" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -30676,6 +32172,9 @@
       <c r="N527" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O527" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -30734,6 +32233,9 @@
       <c r="N528" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O528" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -30792,6 +32294,9 @@
       <c r="N529" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O529" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -30850,6 +32355,9 @@
       <c r="N530" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O530" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -30908,6 +32416,9 @@
       <c r="N531" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O531" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -30966,6 +32477,9 @@
       <c r="N532" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O532" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -31024,6 +32538,9 @@
       <c r="N533" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O533" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -31082,6 +32599,9 @@
       <c r="N534" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O534" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -31140,6 +32660,9 @@
       <c r="N535" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O535" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -31198,6 +32721,9 @@
       <c r="N536" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O536" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -31256,6 +32782,9 @@
       <c r="N537" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O537" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -31314,6 +32843,9 @@
       <c r="N538" t="n">
         <v>43.38456493604605</v>
       </c>
+      <c r="O538" t="n">
+        <v>8.67691298720921</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -31371,6 +32903,9 @@
       </c>
       <c r="N539" t="n">
         <v>43.38456493604605</v>
+      </c>
+      <c r="O539" t="n">
+        <v>8.67691298720921</v>
       </c>
     </row>
   </sheetData>

--- a/Data/unwired.xlsx
+++ b/Data/unwired.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O539"/>
+  <dimension ref="A1:R539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,22 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>EIRP_dBm/Hz</t>
+          <t>EIRP_dBm/MHz</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>TPA_dBW</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>TPA_W</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>TPA_dBm/MHz</t>
         </is>
       </c>
     </row>
@@ -570,6 +585,15 @@
       <c r="O2" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P2" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -631,6 +655,15 @@
       <c r="O3" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P3" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -692,6 +725,15 @@
       <c r="O4" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P4" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -753,6 +795,15 @@
       <c r="O5" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P5" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -814,6 +865,15 @@
       <c r="O6" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P6" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -875,6 +935,15 @@
       <c r="O7" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P7" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -936,6 +1005,15 @@
       <c r="O8" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P8" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -997,6 +1075,15 @@
       <c r="O9" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P9" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1058,6 +1145,15 @@
       <c r="O10" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P10" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1119,6 +1215,15 @@
       <c r="O11" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P11" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1180,6 +1285,15 @@
       <c r="O12" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P12" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1241,6 +1355,15 @@
       <c r="O13" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P13" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1302,6 +1425,15 @@
       <c r="O14" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P14" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1363,6 +1495,15 @@
       <c r="O15" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P15" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1424,6 +1565,15 @@
       <c r="O16" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P16" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1485,6 +1635,15 @@
       <c r="O17" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P17" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1546,6 +1705,15 @@
       <c r="O18" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P18" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1607,6 +1775,15 @@
       <c r="O19" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P19" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1668,6 +1845,15 @@
       <c r="O20" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P20" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1729,6 +1915,15 @@
       <c r="O21" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P21" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1790,6 +1985,15 @@
       <c r="O22" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P22" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1851,6 +2055,15 @@
       <c r="O23" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P23" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1912,6 +2125,15 @@
       <c r="O24" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P24" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1973,6 +2195,15 @@
       <c r="O25" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P25" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2034,6 +2265,15 @@
       <c r="O26" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P26" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2095,6 +2335,15 @@
       <c r="O27" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P27" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2156,6 +2405,15 @@
       <c r="O28" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P28" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2217,6 +2475,15 @@
       <c r="O29" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P29" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2278,6 +2545,15 @@
       <c r="O30" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P30" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2339,6 +2615,15 @@
       <c r="O31" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P31" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2400,6 +2685,15 @@
       <c r="O32" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P32" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2461,6 +2755,15 @@
       <c r="O33" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P33" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2522,6 +2825,15 @@
       <c r="O34" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P34" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2583,6 +2895,15 @@
       <c r="O35" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P35" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2644,6 +2965,15 @@
       <c r="O36" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P36" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2705,6 +3035,15 @@
       <c r="O37" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P37" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2766,6 +3105,15 @@
       <c r="O38" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P38" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2827,6 +3175,15 @@
       <c r="O39" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P39" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2888,6 +3245,15 @@
       <c r="O40" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P40" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2949,6 +3315,15 @@
       <c r="O41" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P41" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3010,6 +3385,15 @@
       <c r="O42" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P42" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3071,6 +3455,15 @@
       <c r="O43" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P43" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3132,6 +3525,15 @@
       <c r="O44" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P44" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3193,6 +3595,15 @@
       <c r="O45" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P45" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3254,6 +3665,15 @@
       <c r="O46" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P46" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3315,6 +3735,15 @@
       <c r="O47" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P47" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3376,6 +3805,15 @@
       <c r="O48" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P48" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3437,6 +3875,15 @@
       <c r="O49" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P49" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3498,6 +3945,15 @@
       <c r="O50" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P50" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3559,6 +4015,15 @@
       <c r="O51" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P51" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3620,6 +4085,15 @@
       <c r="O52" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P52" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3681,6 +4155,15 @@
       <c r="O53" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P53" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3742,6 +4225,15 @@
       <c r="O54" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P54" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3803,6 +4295,15 @@
       <c r="O55" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P55" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3864,6 +4365,15 @@
       <c r="O56" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P56" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3925,6 +4435,15 @@
       <c r="O57" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P57" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3986,6 +4505,15 @@
       <c r="O58" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P58" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4047,6 +4575,15 @@
       <c r="O59" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P59" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4108,6 +4645,15 @@
       <c r="O60" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P60" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4169,6 +4715,15 @@
       <c r="O61" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P61" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4230,6 +4785,15 @@
       <c r="O62" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P62" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4291,6 +4855,15 @@
       <c r="O63" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P63" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4352,6 +4925,15 @@
       <c r="O64" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P64" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4413,6 +4995,15 @@
       <c r="O65" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P65" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4474,6 +5065,15 @@
       <c r="O66" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P66" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4535,6 +5135,15 @@
       <c r="O67" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P67" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4596,6 +5205,15 @@
       <c r="O68" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P68" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R68" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4657,6 +5275,15 @@
       <c r="O69" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P69" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R69" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4718,6 +5345,15 @@
       <c r="O70" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P70" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4779,6 +5415,15 @@
       <c r="O71" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P71" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R71" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4840,6 +5485,15 @@
       <c r="O72" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P72" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R72" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4901,6 +5555,15 @@
       <c r="O73" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P73" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R73" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4962,6 +5625,15 @@
       <c r="O74" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P74" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R74" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5023,6 +5695,15 @@
       <c r="O75" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P75" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R75" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5084,6 +5765,15 @@
       <c r="O76" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P76" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R76" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5145,6 +5835,15 @@
       <c r="O77" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P77" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R77" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5206,6 +5905,15 @@
       <c r="O78" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P78" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R78" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5267,6 +5975,15 @@
       <c r="O79" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P79" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R79" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5328,6 +6045,15 @@
       <c r="O80" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P80" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R80" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5389,6 +6115,15 @@
       <c r="O81" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P81" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R81" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5450,6 +6185,15 @@
       <c r="O82" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P82" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R82" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5511,6 +6255,15 @@
       <c r="O83" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P83" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R83" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5572,6 +6325,15 @@
       <c r="O84" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P84" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R84" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5633,6 +6395,15 @@
       <c r="O85" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P85" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R85" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5694,6 +6465,15 @@
       <c r="O86" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P86" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R86" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5755,6 +6535,15 @@
       <c r="O87" t="n">
         <v>8.214419939295738</v>
       </c>
+      <c r="P87" t="n">
+        <v>-4.927900303521312</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.3215214632332266</v>
+      </c>
+      <c r="R87" t="n">
+        <v>-0.9855800607042624</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5816,6 +6605,15 @@
       <c r="O88" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P88" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R88" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5877,6 +6675,15 @@
       <c r="O89" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P89" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R89" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5938,6 +6745,15 @@
       <c r="O90" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P90" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R90" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5999,6 +6815,15 @@
       <c r="O91" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P91" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R91" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6060,6 +6885,15 @@
       <c r="O92" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P92" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R92" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6121,6 +6955,15 @@
       <c r="O93" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P93" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R93" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6182,6 +7025,15 @@
       <c r="O94" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P94" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R94" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6243,6 +7095,15 @@
       <c r="O95" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P95" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R95" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6304,6 +7165,15 @@
       <c r="O96" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P96" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R96" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6365,6 +7235,15 @@
       <c r="O97" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P97" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R97" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6426,6 +7305,15 @@
       <c r="O98" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P98" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R98" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6487,6 +7375,15 @@
       <c r="O99" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P99" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R99" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6548,6 +7445,15 @@
       <c r="O100" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P100" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R100" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6609,6 +7515,15 @@
       <c r="O101" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P101" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R101" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6670,6 +7585,15 @@
       <c r="O102" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P102" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R102" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6731,6 +7655,15 @@
       <c r="O103" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P103" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R103" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6792,6 +7725,15 @@
       <c r="O104" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P104" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R104" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6853,6 +7795,15 @@
       <c r="O105" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P105" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R105" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6914,6 +7865,15 @@
       <c r="O106" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P106" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R106" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6975,6 +7935,15 @@
       <c r="O107" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P107" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R107" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7036,6 +8005,15 @@
       <c r="O108" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P108" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R108" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7097,6 +8075,15 @@
       <c r="O109" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P109" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R109" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7158,6 +8145,15 @@
       <c r="O110" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P110" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R110" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7219,6 +8215,15 @@
       <c r="O111" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P111" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R111" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7280,6 +8285,15 @@
       <c r="O112" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P112" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R112" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7341,6 +8355,15 @@
       <c r="O113" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P113" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R113" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7402,6 +8425,15 @@
       <c r="O114" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P114" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R114" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7463,6 +8495,15 @@
       <c r="O115" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P115" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R115" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7524,6 +8565,15 @@
       <c r="O116" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P116" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R116" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7585,6 +8635,15 @@
       <c r="O117" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P117" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R117" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7646,6 +8705,15 @@
       <c r="O118" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P118" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R118" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7707,6 +8775,15 @@
       <c r="O119" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P119" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R119" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7768,6 +8845,15 @@
       <c r="O120" t="n">
         <v>7.362482474751173</v>
       </c>
+      <c r="P120" t="n">
+        <v>-9.187587626244131</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.1205705487124597</v>
+      </c>
+      <c r="R120" t="n">
+        <v>-1.837517525248826</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7829,6 +8915,15 @@
       <c r="O121" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P121" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R121" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7890,6 +8985,15 @@
       <c r="O122" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P122" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R122" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7951,6 +9055,15 @@
       <c r="O123" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P123" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R123" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8012,6 +9125,15 @@
       <c r="O124" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P124" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R124" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8073,6 +9195,15 @@
       <c r="O125" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P125" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R125" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8134,6 +9265,15 @@
       <c r="O126" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P126" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R126" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8195,6 +9335,15 @@
       <c r="O127" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P127" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R127" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8256,6 +9405,15 @@
       <c r="O128" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P128" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R128" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8317,6 +9475,15 @@
       <c r="O129" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P129" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R129" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8378,6 +9545,15 @@
       <c r="O130" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P130" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R130" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8439,6 +9615,15 @@
       <c r="O131" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P131" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R131" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8500,6 +9685,15 @@
       <c r="O132" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P132" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R132" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8561,6 +9755,15 @@
       <c r="O133" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P133" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R133" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8622,6 +9825,15 @@
       <c r="O134" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P134" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R134" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8683,6 +9895,15 @@
       <c r="O135" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P135" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R135" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8744,6 +9965,15 @@
       <c r="O136" t="n">
         <v>7.362482474751173</v>
       </c>
+      <c r="P136" t="n">
+        <v>-9.187587626244131</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0.1205705487124597</v>
+      </c>
+      <c r="R136" t="n">
+        <v>-1.837517525248826</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8805,6 +10035,15 @@
       <c r="O137" t="n">
         <v>7.362482474751173</v>
       </c>
+      <c r="P137" t="n">
+        <v>-9.187587626244131</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0.1205705487124597</v>
+      </c>
+      <c r="R137" t="n">
+        <v>-1.837517525248826</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8866,6 +10105,15 @@
       <c r="O138" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P138" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R138" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8927,6 +10175,15 @@
       <c r="O139" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P139" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R139" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8988,6 +10245,15 @@
       <c r="O140" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P140" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R140" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9049,6 +10315,15 @@
       <c r="O141" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P141" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R141" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9110,6 +10385,15 @@
       <c r="O142" t="n">
         <v>7.362482474751173</v>
       </c>
+      <c r="P142" t="n">
+        <v>-9.187587626244131</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0.1205705487124597</v>
+      </c>
+      <c r="R142" t="n">
+        <v>-1.837517525248826</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9171,6 +10455,15 @@
       <c r="O143" t="n">
         <v>7.362482474751173</v>
       </c>
+      <c r="P143" t="n">
+        <v>-9.187587626244131</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0.1205705487124597</v>
+      </c>
+      <c r="R143" t="n">
+        <v>-1.837517525248826</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9232,6 +10525,15 @@
       <c r="O144" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P144" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R144" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9293,6 +10595,15 @@
       <c r="O145" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P145" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R145" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9354,6 +10665,15 @@
       <c r="O146" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P146" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R146" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9415,6 +10735,15 @@
       <c r="O147" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P147" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R147" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9476,6 +10805,15 @@
       <c r="O148" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P148" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R148" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9537,6 +10875,15 @@
       <c r="O149" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P149" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R149" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9598,6 +10945,15 @@
       <c r="O150" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P150" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R150" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9659,6 +11015,15 @@
       <c r="O151" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P151" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R151" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9720,6 +11085,15 @@
       <c r="O152" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P152" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R152" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9781,6 +11155,15 @@
       <c r="O153" t="n">
         <v>7.362482474751173</v>
       </c>
+      <c r="P153" t="n">
+        <v>-9.187587626244131</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0.1205705487124597</v>
+      </c>
+      <c r="R153" t="n">
+        <v>-1.837517525248826</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9842,6 +11225,15 @@
       <c r="O154" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P154" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R154" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9903,6 +11295,15 @@
       <c r="O155" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P155" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R155" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9964,6 +11365,15 @@
       <c r="O156" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P156" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R156" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10025,6 +11435,15 @@
       <c r="O157" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P157" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R157" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10086,6 +11505,15 @@
       <c r="O158" t="n">
         <v>7.362482474751173</v>
       </c>
+      <c r="P158" t="n">
+        <v>-9.187587626244131</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0.1205705487124597</v>
+      </c>
+      <c r="R158" t="n">
+        <v>-1.837517525248826</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10147,6 +11575,15 @@
       <c r="O159" t="n">
         <v>7.362482474751173</v>
       </c>
+      <c r="P159" t="n">
+        <v>-9.187587626244131</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0.1205705487124597</v>
+      </c>
+      <c r="R159" t="n">
+        <v>-1.837517525248826</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10208,6 +11645,15 @@
       <c r="O160" t="n">
         <v>7.362482474751173</v>
       </c>
+      <c r="P160" t="n">
+        <v>-9.187587626244131</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0.1205705487124597</v>
+      </c>
+      <c r="R160" t="n">
+        <v>-1.837517525248826</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10269,6 +11715,15 @@
       <c r="O161" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P161" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R161" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10330,6 +11785,15 @@
       <c r="O162" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P162" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R162" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10391,6 +11855,15 @@
       <c r="O163" t="n">
         <v>7.362482474751173</v>
       </c>
+      <c r="P163" t="n">
+        <v>-9.187587626244131</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0.1205705487124597</v>
+      </c>
+      <c r="R163" t="n">
+        <v>-1.837517525248826</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10452,6 +11925,15 @@
       <c r="O164" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P164" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R164" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10513,6 +11995,15 @@
       <c r="O165" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P165" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R165" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10574,6 +12065,15 @@
       <c r="O166" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P166" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R166" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10635,6 +12135,15 @@
       <c r="O167" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P167" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R167" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10696,6 +12205,15 @@
       <c r="O168" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P168" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R168" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10757,6 +12275,15 @@
       <c r="O169" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P169" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R169" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10818,6 +12345,15 @@
       <c r="O170" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P170" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R170" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10879,6 +12415,15 @@
       <c r="O171" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P171" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R171" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10940,6 +12485,15 @@
       <c r="O172" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P172" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R172" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11001,6 +12555,15 @@
       <c r="O173" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P173" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R173" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11062,6 +12625,15 @@
       <c r="O174" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P174" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R174" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -11123,6 +12695,15 @@
       <c r="O175" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P175" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R175" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11184,6 +12765,15 @@
       <c r="O176" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P176" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R176" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11245,6 +12835,15 @@
       <c r="O177" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P177" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R177" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -11306,6 +12905,15 @@
       <c r="O178" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P178" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R178" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11367,6 +12975,15 @@
       <c r="O179" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P179" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R179" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11428,6 +13045,15 @@
       <c r="O180" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P180" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R180" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11489,6 +13115,15 @@
       <c r="O181" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P181" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R181" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11550,6 +13185,15 @@
       <c r="O182" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P182" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R182" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11611,6 +13255,15 @@
       <c r="O183" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P183" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R183" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11672,6 +13325,15 @@
       <c r="O184" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P184" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R184" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11733,6 +13395,15 @@
       <c r="O185" t="n">
         <v>7.362482474751173</v>
       </c>
+      <c r="P185" t="n">
+        <v>-9.187587626244131</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0.1205705487124597</v>
+      </c>
+      <c r="R185" t="n">
+        <v>-1.837517525248826</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11794,6 +13465,15 @@
       <c r="O186" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P186" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R186" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11855,6 +13535,15 @@
       <c r="O187" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P187" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R187" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11916,6 +13605,15 @@
       <c r="O188" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P188" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R188" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11977,6 +13675,15 @@
       <c r="O189" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P189" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R189" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12038,6 +13745,15 @@
       <c r="O190" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P190" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R190" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12099,6 +13815,15 @@
       <c r="O191" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P191" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R191" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -12160,6 +13885,15 @@
       <c r="O192" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P192" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R192" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12221,6 +13955,15 @@
       <c r="O193" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P193" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R193" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -12282,6 +14025,15 @@
       <c r="O194" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P194" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R194" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -12343,6 +14095,15 @@
       <c r="O195" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P195" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R195" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12404,6 +14165,15 @@
       <c r="O196" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P196" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R196" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12465,6 +14235,15 @@
       <c r="O197" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P197" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R197" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12526,6 +14305,15 @@
       <c r="O198" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P198" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R198" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12587,6 +14375,15 @@
       <c r="O199" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P199" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R199" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12648,6 +14445,15 @@
       <c r="O200" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P200" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R200" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12709,6 +14515,15 @@
       <c r="O201" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P201" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R201" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12770,6 +14585,15 @@
       <c r="O202" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P202" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R202" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12831,6 +14655,15 @@
       <c r="O203" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P203" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R203" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12892,6 +14725,15 @@
       <c r="O204" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P204" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R204" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12953,6 +14795,15 @@
       <c r="O205" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P205" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R205" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -13014,6 +14865,15 @@
       <c r="O206" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P206" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R206" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -13075,6 +14935,15 @@
       <c r="O207" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P207" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R207" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -13136,6 +15005,15 @@
       <c r="O208" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P208" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R208" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -13197,6 +15075,15 @@
       <c r="O209" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P209" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R209" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -13258,6 +15145,15 @@
       <c r="O210" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P210" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R210" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -13319,6 +15215,15 @@
       <c r="O211" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P211" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R211" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -13380,6 +15285,15 @@
       <c r="O212" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P212" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R212" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -13441,6 +15355,15 @@
       <c r="O213" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P213" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R213" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -13502,6 +15425,15 @@
       <c r="O214" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P214" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R214" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13563,6 +15495,15 @@
       <c r="O215" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P215" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R215" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13624,6 +15565,15 @@
       <c r="O216" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P216" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R216" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13685,6 +15635,15 @@
       <c r="O217" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P217" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R217" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13746,6 +15705,15 @@
       <c r="O218" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P218" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R218" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13807,6 +15775,15 @@
       <c r="O219" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P219" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R219" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13868,6 +15845,15 @@
       <c r="O220" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P220" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R220" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13929,6 +15915,15 @@
       <c r="O221" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P221" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R221" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -13990,6 +15985,15 @@
       <c r="O222" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P222" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R222" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -14051,6 +16055,15 @@
       <c r="O223" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P223" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R223" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -14112,6 +16125,15 @@
       <c r="O224" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P224" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R224" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -14173,6 +16195,15 @@
       <c r="O225" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P225" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R225" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -14234,6 +16265,15 @@
       <c r="O226" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P226" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R226" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -14295,6 +16335,15 @@
       <c r="O227" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P227" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R227" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -14356,6 +16405,15 @@
       <c r="O228" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P228" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R228" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -14417,6 +16475,15 @@
       <c r="O229" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P229" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R229" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -14478,6 +16545,15 @@
       <c r="O230" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P230" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R230" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -14539,6 +16615,15 @@
       <c r="O231" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P231" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R231" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -14600,6 +16685,15 @@
       <c r="O232" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P232" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R232" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -14661,6 +16755,15 @@
       <c r="O233" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P233" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R233" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -14722,6 +16825,15 @@
       <c r="O234" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P234" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R234" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -14783,6 +16895,15 @@
       <c r="O235" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P235" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R235" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -14844,6 +16965,15 @@
       <c r="O236" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P236" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R236" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -14905,6 +17035,15 @@
       <c r="O237" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P237" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R237" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -14966,6 +17105,15 @@
       <c r="O238" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P238" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R238" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -15027,6 +17175,15 @@
       <c r="O239" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P239" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R239" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -15088,6 +17245,15 @@
       <c r="O240" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P240" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R240" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -15149,6 +17315,15 @@
       <c r="O241" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P241" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R241" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -15210,6 +17385,15 @@
       <c r="O242" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P242" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R242" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -15271,6 +17455,15 @@
       <c r="O243" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P243" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R243" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -15332,6 +17525,15 @@
       <c r="O244" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P244" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R244" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -15393,6 +17595,15 @@
       <c r="O245" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P245" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R245" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -15454,6 +17665,15 @@
       <c r="O246" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P246" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R246" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -15515,6 +17735,15 @@
       <c r="O247" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P247" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R247" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -15576,6 +17805,15 @@
       <c r="O248" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P248" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R248" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -15637,6 +17875,15 @@
       <c r="O249" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P249" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R249" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -15698,6 +17945,15 @@
       <c r="O250" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P250" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R250" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -15759,6 +18015,15 @@
       <c r="O251" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P251" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R251" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -15820,6 +18085,15 @@
       <c r="O252" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P252" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R252" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -15881,6 +18155,15 @@
       <c r="O253" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P253" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R253" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -15942,6 +18225,15 @@
       <c r="O254" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P254" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R254" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -16003,6 +18295,15 @@
       <c r="O255" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P255" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R255" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -16064,6 +18365,15 @@
       <c r="O256" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P256" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R256" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -16125,6 +18435,15 @@
       <c r="O257" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P257" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R257" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -16186,6 +18505,15 @@
       <c r="O258" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P258" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R258" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -16247,6 +18575,15 @@
       <c r="O259" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P259" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R259" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -16308,6 +18645,15 @@
       <c r="O260" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P260" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R260" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -16369,6 +18715,15 @@
       <c r="O261" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P261" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R261" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -16430,6 +18785,15 @@
       <c r="O262" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P262" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R262" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -16491,6 +18855,15 @@
       <c r="O263" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P263" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R263" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -16552,6 +18925,15 @@
       <c r="O264" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P264" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R264" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -16613,6 +18995,15 @@
       <c r="O265" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P265" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R265" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -16674,6 +19065,15 @@
       <c r="O266" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P266" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R266" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -16735,6 +19135,15 @@
       <c r="O267" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P267" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R267" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -16796,6 +19205,15 @@
       <c r="O268" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P268" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R268" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -16857,6 +19275,15 @@
       <c r="O269" t="n">
         <v>8.715869694000908</v>
       </c>
+      <c r="P269" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R269" t="n">
+        <v>-0.4841303059990921</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -16918,6 +19345,15 @@
       <c r="O270" t="n">
         <v>8.500840004617787</v>
       </c>
+      <c r="P270" t="n">
+        <v>-3.495799976911066</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0.4471157848087047</v>
+      </c>
+      <c r="R270" t="n">
+        <v>-0.6991599953822132</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -16979,6 +19415,15 @@
       <c r="O271" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P271" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R271" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -17040,6 +19485,15 @@
       <c r="O272" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P272" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R272" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -17101,6 +19555,15 @@
       <c r="O273" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P273" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R273" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -17162,6 +19625,15 @@
       <c r="O274" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P274" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R274" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -17223,6 +19695,15 @@
       <c r="O275" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P275" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R275" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -17284,6 +19765,15 @@
       <c r="O276" t="n">
         <v>7.362482474751173</v>
       </c>
+      <c r="P276" t="n">
+        <v>-9.187587626244131</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0.1205705487124597</v>
+      </c>
+      <c r="R276" t="n">
+        <v>-1.837517525248826</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -17345,6 +19835,15 @@
       <c r="O277" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P277" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R277" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -17406,6 +19905,15 @@
       <c r="O278" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P278" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R278" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -17466,6 +19974,15 @@
       </c>
       <c r="O279" t="n">
         <v>8.548315698527359</v>
+      </c>
+      <c r="P279" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R279" t="n">
+        <v>-0.6516843014726404</v>
       </c>
     </row>
     <row r="280">
@@ -17518,6 +20035,9 @@
       </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr"/>
+      <c r="P280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr"/>
+      <c r="R280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -17569,6 +20089,9 @@
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
+      <c r="P281" t="inlineStr"/>
+      <c r="Q281" t="inlineStr"/>
+      <c r="R281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -17620,6 +20143,9 @@
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
+      <c r="P282" t="inlineStr"/>
+      <c r="Q282" t="inlineStr"/>
+      <c r="R282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -17671,6 +20197,9 @@
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr"/>
+      <c r="P283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr"/>
+      <c r="R283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -17722,6 +20251,9 @@
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
+      <c r="P284" t="inlineStr"/>
+      <c r="Q284" t="inlineStr"/>
+      <c r="R284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -17773,6 +20305,9 @@
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
+      <c r="P285" t="inlineStr"/>
+      <c r="Q285" t="inlineStr"/>
+      <c r="R285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -17824,6 +20359,9 @@
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
+      <c r="P286" t="inlineStr"/>
+      <c r="Q286" t="inlineStr"/>
+      <c r="R286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -17875,6 +20413,9 @@
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
+      <c r="P287" t="inlineStr"/>
+      <c r="Q287" t="inlineStr"/>
+      <c r="R287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -17926,6 +20467,9 @@
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
+      <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="inlineStr"/>
+      <c r="R288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -17977,6 +20521,9 @@
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
+      <c r="P289" t="inlineStr"/>
+      <c r="Q289" t="inlineStr"/>
+      <c r="R289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -18028,6 +20575,9 @@
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
+      <c r="P290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr"/>
+      <c r="R290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -18079,6 +20629,9 @@
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr"/>
+      <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr"/>
+      <c r="R291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -18130,6 +20683,9 @@
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
+      <c r="P292" t="inlineStr"/>
+      <c r="Q292" t="inlineStr"/>
+      <c r="R292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -18181,6 +20737,9 @@
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
+      <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr"/>
+      <c r="R293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -18242,6 +20801,15 @@
       <c r="O294" t="n">
         <v>5.936194339235803</v>
       </c>
+      <c r="P294" t="n">
+        <v>-12.84663962534938</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0.05192016183212448</v>
+      </c>
+      <c r="R294" t="n">
+        <v>-1.835234232192769</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -18302,6 +20870,15 @@
       </c>
       <c r="O295" t="n">
         <v>5.190669222256552</v>
+      </c>
+      <c r="P295" t="n">
+        <v>-18.06531544420413</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0.01561235635511437</v>
+      </c>
+      <c r="R295" t="n">
+        <v>-2.580759349172019</v>
       </c>
     </row>
     <row r="296">
@@ -18354,6 +20931,9 @@
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
+      <c r="P296" t="inlineStr"/>
+      <c r="Q296" t="inlineStr"/>
+      <c r="R296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -18415,6 +20995,15 @@
       <c r="O297" t="n">
         <v>2.572899993805688</v>
       </c>
+      <c r="P297" t="n">
+        <v>-18.37940008672037</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0.01452312219080406</v>
+      </c>
+      <c r="R297" t="n">
+        <v>-1.312814291908598</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -18476,6 +21065,15 @@
       <c r="O298" t="n">
         <v>5.800996914790874</v>
       </c>
+      <c r="P298" t="n">
+        <v>-13.79302159646388</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0.04175397629856167</v>
+      </c>
+      <c r="R298" t="n">
+        <v>-1.970431656637697</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -18537,6 +21135,15 @@
       <c r="O299" t="n">
         <v>5.519032657314937</v>
       </c>
+      <c r="P299" t="n">
+        <v>-15.76677139879544</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0.0265046979982174</v>
+      </c>
+      <c r="R299" t="n">
+        <v>-2.252395914113634</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -18598,6 +21205,15 @@
       <c r="O300" t="n">
         <v>5.66926135507705</v>
       </c>
+      <c r="P300" t="n">
+        <v>-14.71517051446065</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0.03376625909361946</v>
+      </c>
+      <c r="R300" t="n">
+        <v>-2.102167216351521</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -18659,6 +21275,15 @@
       <c r="O301" t="n">
         <v>2.795581323131227</v>
       </c>
+      <c r="P301" t="n">
+        <v>-15.26186147616283</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0.02977240049114835</v>
+      </c>
+      <c r="R301" t="n">
+        <v>-1.090132962583059</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -18720,6 +21345,15 @@
       <c r="O302" t="n">
         <v>5.842721587770569</v>
       </c>
+      <c r="P302" t="n">
+        <v>-13.50094888560601</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0.04465860073672253</v>
+      </c>
+      <c r="R302" t="n">
+        <v>-1.928706983658002</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -18781,6 +21415,15 @@
       <c r="O303" t="n">
         <v>5.842721587770569</v>
       </c>
+      <c r="P303" t="n">
+        <v>-13.50094888560601</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0.04465860073672253</v>
+      </c>
+      <c r="R303" t="n">
+        <v>-1.928706983658002</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -18842,6 +21485,15 @@
       <c r="O304" t="n">
         <v>2.531477174535911</v>
       </c>
+      <c r="P304" t="n">
+        <v>-18.95931955649724</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0.01270773191695355</v>
+      </c>
+      <c r="R304" t="n">
+        <v>-1.354237111178374</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -18903,6 +21555,15 @@
       <c r="O305" t="n">
         <v>5.47501273243748</v>
       </c>
+      <c r="P305" t="n">
+        <v>-16.07491087293764</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0.0246893077243669</v>
+      </c>
+      <c r="R305" t="n">
+        <v>-2.296415838991091</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -18964,6 +21625,15 @@
       <c r="O306" t="n">
         <v>5.343375270706062</v>
       </c>
+      <c r="P306" t="n">
+        <v>-16.99637310505756</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0.01996929301235556</v>
+      </c>
+      <c r="R306" t="n">
+        <v>-2.428053300722509</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -19025,6 +21695,15 @@
       <c r="O307" t="n">
         <v>4.448490503295481</v>
       </c>
+      <c r="P307" t="n">
+        <v>-23.26056647693163</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0.00472001471201132</v>
+      </c>
+      <c r="R307" t="n">
+        <v>-3.32293806813309</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -19086,6 +21765,15 @@
       <c r="O308" t="n">
         <v>2.834630677538525</v>
       </c>
+      <c r="P308" t="n">
+        <v>-14.71517051446065</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0.03376625909361946</v>
+      </c>
+      <c r="R308" t="n">
+        <v>-1.05108360817576</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -19147,6 +21835,15 @@
       <c r="O309" t="n">
         <v>3.025377462076821</v>
       </c>
+      <c r="P309" t="n">
+        <v>-12.04471553092451</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0.06244942542045741</v>
+      </c>
+      <c r="R309" t="n">
+        <v>-0.8603368236374652</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -19208,6 +21905,15 @@
       <c r="O310" t="n">
         <v>5.7562625395503</v>
       </c>
+      <c r="P310" t="n">
+        <v>-14.1061622231479</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0.03884935186040089</v>
+      </c>
+      <c r="R310" t="n">
+        <v>-2.015166031878271</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -19269,6 +21975,15 @@
       <c r="O311" t="n">
         <v>5.354554324294571</v>
       </c>
+      <c r="P311" t="n">
+        <v>-16.918119729938</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0.02033237106712566</v>
+      </c>
+      <c r="R311" t="n">
+        <v>-2.416874247134</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -19330,6 +22045,15 @@
       <c r="O312" t="n">
         <v>5.816974296151607</v>
       </c>
+      <c r="P312" t="n">
+        <v>-13.68117992693875</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>0.04284321046287195</v>
+      </c>
+      <c r="R312" t="n">
+        <v>-1.954454275276964</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -19391,6 +22115,15 @@
       <c r="O313" t="n">
         <v>5.354554324294571</v>
       </c>
+      <c r="P313" t="n">
+        <v>-16.918119729938</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>0.02033237106712566</v>
+      </c>
+      <c r="R313" t="n">
+        <v>-2.416874247134</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -19452,6 +22185,15 @@
       <c r="O314" t="n">
         <v>2.71381467818113</v>
       </c>
+      <c r="P314" t="n">
+        <v>-16.40659450546418</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>0.02287391745051637</v>
+      </c>
+      <c r="R314" t="n">
+        <v>-1.171899607533156</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -19513,6 +22255,15 @@
       <c r="O315" t="n">
         <v>5.886534187436928</v>
       </c>
+      <c r="P315" t="n">
+        <v>-13.1942606879415</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0.04792630322965338</v>
+      </c>
+      <c r="R315" t="n">
+        <v>-1.884894383991643</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -19573,6 +22324,15 @@
       </c>
       <c r="O316" t="n">
         <v>2.824458935313803</v>
+      </c>
+      <c r="P316" t="n">
+        <v>-14.85757490560675</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>0.0326770249293091</v>
+      </c>
+      <c r="R316" t="n">
+        <v>-1.061255350400482</v>
       </c>
     </row>
     <row r="317">
@@ -19625,6 +22385,9 @@
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
+      <c r="P317" t="inlineStr"/>
+      <c r="Q317" t="inlineStr"/>
+      <c r="R317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -19676,6 +22439,9 @@
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
+      <c r="P318" t="inlineStr"/>
+      <c r="Q318" t="inlineStr"/>
+      <c r="R318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -19737,6 +22503,15 @@
       <c r="O319" t="n">
         <v>6.043498459111821</v>
       </c>
+      <c r="P319" t="n">
+        <v>-12.09551078621725</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0.06172326931091732</v>
+      </c>
+      <c r="R319" t="n">
+        <v>-1.727930112316751</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -19798,6 +22573,15 @@
       <c r="O320" t="n">
         <v>2.703807025007691</v>
       </c>
+      <c r="P320" t="n">
+        <v>-16.54670164989233</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>0.02214776134097619</v>
+      </c>
+      <c r="R320" t="n">
+        <v>-1.181907260706595</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -19859,6 +22643,15 @@
       <c r="O321" t="n">
         <v>2.866312303360837</v>
       </c>
+      <c r="P321" t="n">
+        <v>-14.27162775294828</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>0.03739703964132045</v>
+      </c>
+      <c r="R321" t="n">
+        <v>-1.019401982353448</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -19920,6 +22713,15 @@
       <c r="O322" t="n">
         <v>5.89121662995298</v>
       </c>
+      <c r="P322" t="n">
+        <v>-13.16148359032914</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>0.04828938128442348</v>
+      </c>
+      <c r="R322" t="n">
+        <v>-1.880211941475592</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -19981,6 +22783,15 @@
       <c r="O323" t="n">
         <v>5.827401780068036</v>
       </c>
+      <c r="P323" t="n">
+        <v>-13.60818753952375</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>0.04356936657241219</v>
+      </c>
+      <c r="R323" t="n">
+        <v>-1.944026791360535</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -20041,6 +22852,15 @@
       </c>
       <c r="O324" t="n">
         <v>11.31154683520312</v>
+      </c>
+      <c r="P324" t="n">
+        <v>-14.80958607678907</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0.03304010298407919</v>
+      </c>
+      <c r="R324" t="n">
+        <v>-4.231310307654019</v>
       </c>
     </row>
     <row r="325">
@@ -20093,6 +22913,9 @@
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr"/>
+      <c r="P325" t="inlineStr"/>
+      <c r="Q325" t="inlineStr"/>
+      <c r="R325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -20144,6 +22967,9 @@
       </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr"/>
+      <c r="P326" t="inlineStr"/>
+      <c r="Q326" t="inlineStr"/>
+      <c r="R326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -20195,6 +23021,9 @@
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
+      <c r="P327" t="inlineStr"/>
+      <c r="Q327" t="inlineStr"/>
+      <c r="R327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -20256,6 +23085,15 @@
       <c r="O328" t="n">
         <v>5.8325505290235</v>
       </c>
+      <c r="P328" t="n">
+        <v>-13.5721462968355</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0.04393244462718227</v>
+      </c>
+      <c r="R328" t="n">
+        <v>-1.938878042405071</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -20317,6 +23155,15 @@
       <c r="O329" t="n">
         <v>2.913700890034018</v>
       </c>
+      <c r="P329" t="n">
+        <v>-13.60818753952375</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0.04356936657241219</v>
+      </c>
+      <c r="R329" t="n">
+        <v>-0.9720133956802677</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -20378,6 +23225,15 @@
       <c r="O330" t="n">
         <v>3.008705431717113</v>
       </c>
+      <c r="P330" t="n">
+        <v>-12.27812395596042</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0.05918172292752657</v>
+      </c>
+      <c r="R330" t="n">
+        <v>-0.8770088539971727</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -20439,6 +23295,15 @@
       <c r="O331" t="n">
         <v>2.799341494554338</v>
       </c>
+      <c r="P331" t="n">
+        <v>-15.20921907623926</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0.03013547854591844</v>
+      </c>
+      <c r="R331" t="n">
+        <v>-1.086372791159947</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -20500,6 +23365,15 @@
       <c r="O332" t="n">
         <v>5.583550026969499</v>
       </c>
+      <c r="P332" t="n">
+        <v>-15.3151498112135</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0.02940932243637821</v>
+      </c>
+      <c r="R332" t="n">
+        <v>-2.187878544459072</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -20560,6 +23434,15 @@
       </c>
       <c r="O333" t="n">
         <v>5.750436950378243</v>
+      </c>
+      <c r="P333" t="n">
+        <v>-14.1469413473523</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0.03848627380563076</v>
+      </c>
+      <c r="R333" t="n">
+        <v>-2.020991621050328</v>
       </c>
     </row>
     <row r="334">
@@ -20612,6 +23495,9 @@
       </c>
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr"/>
+      <c r="P334" t="inlineStr"/>
+      <c r="Q334" t="inlineStr"/>
+      <c r="R334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -20673,6 +23559,15 @@
       <c r="O335" t="n">
         <v>2.78792141927996</v>
       </c>
+      <c r="P335" t="n">
+        <v>-15.36910013008056</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>0.02904624438160812</v>
+      </c>
+      <c r="R335" t="n">
+        <v>-1.097792866434326</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -20734,6 +23629,15 @@
       <c r="O336" t="n">
         <v>4.80246833716799</v>
       </c>
+      <c r="P336" t="n">
+        <v>-20.78272163982407</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0.008350795259712336</v>
+      </c>
+      <c r="R336" t="n">
+        <v>-2.968960234260581</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -20794,6 +23698,15 @@
       </c>
       <c r="O337" t="n">
         <v>2.288657130468517</v>
+      </c>
+      <c r="P337" t="n">
+        <v>-22.35880017344076</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0.00580924887632162</v>
+      </c>
+      <c r="R337" t="n">
+        <v>-1.597057155245768</v>
       </c>
     </row>
     <row r="338">
@@ -20846,6 +23759,9 @@
       </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr"/>
+      <c r="P338" t="inlineStr"/>
+      <c r="Q338" t="inlineStr"/>
+      <c r="R338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -20907,6 +23823,15 @@
       <c r="O339" t="n">
         <v>2.595334611128276</v>
       </c>
+      <c r="P339" t="n">
+        <v>-18.06531544420413</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>0.01561235635511437</v>
+      </c>
+      <c r="R339" t="n">
+        <v>-1.290379674586009</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -20968,6 +23893,15 @@
       <c r="O340" t="n">
         <v>4.448490503295481</v>
       </c>
+      <c r="P340" t="n">
+        <v>-23.26056647693163</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0.00472001471201132</v>
+      </c>
+      <c r="R340" t="n">
+        <v>-3.32293806813309</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -21028,6 +23962,15 @@
       </c>
       <c r="O341" t="n">
         <v>5.89121662995298</v>
+      </c>
+      <c r="P341" t="n">
+        <v>-13.16148359032914</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>0.04828938128442348</v>
+      </c>
+      <c r="R341" t="n">
+        <v>-1.880211941475592</v>
       </c>
     </row>
     <row r="342">
@@ -21080,6 +24023,9 @@
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr"/>
+      <c r="P342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr"/>
+      <c r="R342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -21141,6 +24087,15 @@
       <c r="O343" t="n">
         <v>5.57584283855992</v>
       </c>
+      <c r="P343" t="n">
+        <v>-15.36910013008056</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>0.02904624438160812</v>
+      </c>
+      <c r="R343" t="n">
+        <v>-2.195585732868651</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -21202,6 +24157,15 @@
       <c r="O344" t="n">
         <v>2.622927041382655</v>
       </c>
+      <c r="P344" t="n">
+        <v>-17.67902142064283</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0.01706466857419476</v>
+      </c>
+      <c r="R344" t="n">
+        <v>-1.26278724433163</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -21263,6 +24227,15 @@
       <c r="O345" t="n">
         <v>2.401234168583995</v>
       </c>
+      <c r="P345" t="n">
+        <v>-20.78272163982407</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0.008350795259712336</v>
+      </c>
+      <c r="R345" t="n">
+        <v>-1.484480117130291</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -21324,6 +24297,15 @@
       <c r="O346" t="n">
         <v>2.71381467818113</v>
       </c>
+      <c r="P346" t="n">
+        <v>-16.40659450546418</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0.02287391745051637</v>
+      </c>
+      <c r="R346" t="n">
+        <v>-1.171899607533156</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -21385,6 +24367,15 @@
       <c r="O347" t="n">
         <v>5.978130615453712</v>
       </c>
+      <c r="P347" t="n">
+        <v>-12.55308569182402</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0.05555094237982546</v>
+      </c>
+      <c r="R347" t="n">
+        <v>-1.793297955974859</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -21445,6 +24436,15 @@
       </c>
       <c r="O348" t="n">
         <v>5.89121662995298</v>
+      </c>
+      <c r="P348" t="n">
+        <v>-13.16148359032914</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0.04828938128442348</v>
+      </c>
+      <c r="R348" t="n">
+        <v>-1.880211941475592</v>
       </c>
     </row>
     <row r="349">
@@ -21497,6 +24497,9 @@
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
+      <c r="P349" t="inlineStr"/>
+      <c r="Q349" t="inlineStr"/>
+      <c r="R349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -21548,6 +24551,9 @@
       </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr"/>
+      <c r="P350" t="inlineStr"/>
+      <c r="Q350" t="inlineStr"/>
+      <c r="R350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -21608,6 +24614,15 @@
       </c>
       <c r="O351" t="n">
         <v>2.834630677538525</v>
+      </c>
+      <c r="P351" t="n">
+        <v>-14.71517051446065</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0.03376625909361946</v>
+      </c>
+      <c r="R351" t="n">
+        <v>-1.05108360817576</v>
       </c>
     </row>
     <row r="352">
@@ -21660,6 +24675,9 @@
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
+      <c r="P352" t="inlineStr"/>
+      <c r="Q352" t="inlineStr"/>
+      <c r="R352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -21721,6 +24739,15 @@
       <c r="O353" t="n">
         <v>2.759516328657468</v>
       </c>
+      <c r="P353" t="n">
+        <v>-15.76677139879544</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0.0265046979982174</v>
+      </c>
+      <c r="R353" t="n">
+        <v>-1.126197957056817</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -21782,6 +24809,15 @@
       <c r="O354" t="n">
         <v>2.708851206784467</v>
       </c>
+      <c r="P354" t="n">
+        <v>-16.47608310501746</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>0.0225108393957463</v>
+      </c>
+      <c r="R354" t="n">
+        <v>-1.176863078929818</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -21843,6 +24879,15 @@
       <c r="O355" t="n">
         <v>2.831277019532539</v>
       </c>
+      <c r="P355" t="n">
+        <v>-14.76212172654445</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0.0334031810388493</v>
+      </c>
+      <c r="R355" t="n">
+        <v>-1.054437266181746</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -21904,6 +24949,15 @@
       <c r="O356" t="n">
         <v>2.834630677538525</v>
       </c>
+      <c r="P356" t="n">
+        <v>-14.71517051446065</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0.03376625909361946</v>
+      </c>
+      <c r="R356" t="n">
+        <v>-1.05108360817576</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -21965,6 +25019,15 @@
       <c r="O357" t="n">
         <v>2.595334611128276</v>
       </c>
+      <c r="P357" t="n">
+        <v>-18.06531544420413</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0.01561235635511437</v>
+      </c>
+      <c r="R357" t="n">
+        <v>-1.290379674586009</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -22026,6 +25089,15 @@
       <c r="O358" t="n">
         <v>2.698679464559745</v>
       </c>
+      <c r="P358" t="n">
+        <v>-16.61848749616357</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>0.02178468328620606</v>
+      </c>
+      <c r="R358" t="n">
+        <v>-1.187034821154541</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -22087,6 +25159,15 @@
       <c r="O359" t="n">
         <v>5.720459105403775</v>
       </c>
+      <c r="P359" t="n">
+        <v>-14.35678626217358</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>0.0366708835317802</v>
+      </c>
+      <c r="R359" t="n">
+        <v>-2.050969466024797</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -22148,6 +25229,15 @@
       <c r="O360" t="n">
         <v>5.598682989108677</v>
       </c>
+      <c r="P360" t="n">
+        <v>-15.20921907623926</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0.03013547854591844</v>
+      </c>
+      <c r="R360" t="n">
+        <v>-2.172745582319894</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -22209,6 +25299,15 @@
       <c r="O361" t="n">
         <v>2.401234168583995</v>
       </c>
+      <c r="P361" t="n">
+        <v>-20.78272163982407</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>0.008350795259712336</v>
+      </c>
+      <c r="R361" t="n">
+        <v>-1.484480117130291</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -22269,6 +25368,15 @@
       </c>
       <c r="O362" t="n">
         <v>5.598682989108677</v>
+      </c>
+      <c r="P362" t="n">
+        <v>-15.20921907623926</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>0.03013547854591844</v>
+      </c>
+      <c r="R362" t="n">
+        <v>-2.172745582319894</v>
       </c>
     </row>
     <row r="363">
@@ -22321,6 +25429,9 @@
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
+      <c r="P363" t="inlineStr"/>
+      <c r="Q363" t="inlineStr"/>
+      <c r="R363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -22382,6 +25493,15 @@
       <c r="O364" t="n">
         <v>2.79177501348475</v>
       </c>
+      <c r="P364" t="n">
+        <v>-15.3151498112135</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>0.02940932243637821</v>
+      </c>
+      <c r="R364" t="n">
+        <v>-1.093939272229536</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -22443,6 +25563,15 @@
       <c r="O365" t="n">
         <v>5.00735711188558</v>
       </c>
+      <c r="P365" t="n">
+        <v>-19.34850021680094</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>0.01161849775264323</v>
+      </c>
+      <c r="R365" t="n">
+        <v>-2.764071459542992</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -22504,6 +25633,15 @@
       <c r="O366" t="n">
         <v>2.78792141927996</v>
       </c>
+      <c r="P366" t="n">
+        <v>-15.36910013008056</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>0.02904624438160812</v>
+      </c>
+      <c r="R366" t="n">
+        <v>-1.097792866434326</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -22565,6 +25703,15 @@
       <c r="O367" t="n">
         <v>2.886709060827304</v>
       </c>
+      <c r="P367" t="n">
+        <v>-13.98607314841774</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0.03993858602471118</v>
+      </c>
+      <c r="R367" t="n">
+        <v>-0.9990052248869817</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -22626,6 +25773,15 @@
       <c r="O368" t="n">
         <v>6.043498459111821</v>
       </c>
+      <c r="P368" t="n">
+        <v>-12.09551078621725</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0.06172326931091732</v>
+      </c>
+      <c r="R368" t="n">
+        <v>-1.727930112316751</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -22687,6 +25843,15 @@
       <c r="O369" t="n">
         <v>2.866312303360837</v>
       </c>
+      <c r="P369" t="n">
+        <v>-14.27162775294828</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>0.03739703964132045</v>
+      </c>
+      <c r="R369" t="n">
+        <v>-1.019401982353448</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -22748,6 +25913,15 @@
       <c r="O370" t="n">
         <v>5.998081552792032</v>
       </c>
+      <c r="P370" t="n">
+        <v>-12.41342913045577</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>0.05736633265367599</v>
+      </c>
+      <c r="R370" t="n">
+        <v>-1.773347018636539</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -22809,6 +25983,15 @@
       <c r="O371" t="n">
         <v>3.717228559039946</v>
       </c>
+      <c r="P371" t="n">
+        <v>-28.37940008672037</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>0.001452312219080406</v>
+      </c>
+      <c r="R371" t="n">
+        <v>-4.054200012388625</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -22870,6 +26053,15 @@
       <c r="O372" t="n">
         <v>5.66926135507705</v>
       </c>
+      <c r="P372" t="n">
+        <v>-14.71517051446065</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>0.03376625909361946</v>
+      </c>
+      <c r="R372" t="n">
+        <v>-2.102167216351521</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -22931,6 +26123,15 @@
       <c r="O373" t="n">
         <v>2.799341494554338</v>
       </c>
+      <c r="P373" t="n">
+        <v>-15.20921907623926</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>0.03013547854591844</v>
+      </c>
+      <c r="R373" t="n">
+        <v>-1.086372791159947</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -22992,6 +26193,15 @@
       <c r="O374" t="n">
         <v>5.936194339235803</v>
       </c>
+      <c r="P374" t="n">
+        <v>-12.84663962534938</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>0.05192016183212448</v>
+      </c>
+      <c r="R374" t="n">
+        <v>-1.835234232192769</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -23053,6 +26263,15 @@
       <c r="O375" t="n">
         <v>5.89121662995298</v>
       </c>
+      <c r="P375" t="n">
+        <v>-13.16148359032914</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>0.04828938128442348</v>
+      </c>
+      <c r="R375" t="n">
+        <v>-1.880211941475592</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -23114,6 +26333,15 @@
       <c r="O376" t="n">
         <v>5.732624606721674</v>
       </c>
+      <c r="P376" t="n">
+        <v>-14.27162775294828</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>0.03739703964132045</v>
+      </c>
+      <c r="R376" t="n">
+        <v>-2.038803964706897</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -23175,6 +26403,15 @@
       <c r="O377" t="n">
         <v>5.591162646262453</v>
       </c>
+      <c r="P377" t="n">
+        <v>-15.26186147616283</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>0.02977240049114835</v>
+      </c>
+      <c r="R377" t="n">
+        <v>-2.180265925166118</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -23236,6 +26473,15 @@
       <c r="O378" t="n">
         <v>5.842721587770569</v>
       </c>
+      <c r="P378" t="n">
+        <v>-13.50094888560601</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>0.04465860073672253</v>
+      </c>
+      <c r="R378" t="n">
+        <v>-1.928706983658002</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -23297,6 +26543,15 @@
       <c r="O379" t="n">
         <v>2.913700890034018</v>
       </c>
+      <c r="P379" t="n">
+        <v>-13.60818753952375</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>0.04356936657241219</v>
+      </c>
+      <c r="R379" t="n">
+        <v>-0.9720133956802677</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -23358,6 +26613,15 @@
       <c r="O380" t="n">
         <v>5.842721587770569</v>
       </c>
+      <c r="P380" t="n">
+        <v>-13.50094888560601</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>0.04465860073672253</v>
+      </c>
+      <c r="R380" t="n">
+        <v>-1.928706983658002</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -23419,6 +26683,15 @@
       <c r="O381" t="n">
         <v>6.089215842472043</v>
       </c>
+      <c r="P381" t="n">
+        <v>-11.7754891026957</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>0.06644328402292859</v>
+      </c>
+      <c r="R381" t="n">
+        <v>-1.682212728956529</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -23480,6 +26753,15 @@
       <c r="O382" t="n">
         <v>5.931840491975795</v>
       </c>
+      <c r="P382" t="n">
+        <v>-12.87711655616943</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>0.05155708377735443</v>
+      </c>
+      <c r="R382" t="n">
+        <v>-1.839588079452776</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -23541,6 +26823,15 @@
       <c r="O383" t="n">
         <v>5.837656900963927</v>
       </c>
+      <c r="P383" t="n">
+        <v>-13.53640169325251</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>0.04429552268195239</v>
+      </c>
+      <c r="R383" t="n">
+        <v>-1.933771670464645</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -23602,6 +26893,15 @@
       <c r="O384" t="n">
         <v>5.501797641027251</v>
       </c>
+      <c r="P384" t="n">
+        <v>-15.88741651280925</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>0.02577854188867721</v>
+      </c>
+      <c r="R384" t="n">
+        <v>-2.269630930401321</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -23663,6 +26963,15 @@
       <c r="O385" t="n">
         <v>2.872278070764242</v>
       </c>
+      <c r="P385" t="n">
+        <v>-14.18810700930062</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>0.03812319575086066</v>
+      </c>
+      <c r="R385" t="n">
+        <v>-1.013436214950044</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -23724,6 +27033,15 @@
       <c r="O386" t="n">
         <v>6.122224727153963</v>
       </c>
+      <c r="P386" t="n">
+        <v>-11.54442690992226</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>0.07007406457062962</v>
+      </c>
+      <c r="R386" t="n">
+        <v>-1.649203844274608</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -23785,6 +27103,15 @@
       <c r="O387" t="n">
         <v>4.220346442056178</v>
       </c>
+      <c r="P387" t="n">
+        <v>-24.85757490560675</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>0.003267702492930912</v>
+      </c>
+      <c r="R387" t="n">
+        <v>-3.551082129372393</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -23846,6 +27173,15 @@
       <c r="O388" t="n">
         <v>5.37632570508991</v>
       </c>
+      <c r="P388" t="n">
+        <v>-16.76572006437063</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>0.02105852717666588</v>
+      </c>
+      <c r="R388" t="n">
+        <v>-2.395102866338661</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -23906,6 +27242,15 @@
       </c>
       <c r="O389" t="n">
         <v>5.427629356362259</v>
+      </c>
+      <c r="P389" t="n">
+        <v>-16.40659450546418</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>0.02287391745051637</v>
+      </c>
+      <c r="R389" t="n">
+        <v>-2.343799215066312</v>
       </c>
     </row>
     <row r="390">
@@ -23958,6 +27303,9 @@
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr"/>
+      <c r="P390" t="inlineStr"/>
+      <c r="Q390" t="inlineStr"/>
+      <c r="R390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -24019,6 +27367,15 @@
       <c r="O391" t="n">
         <v>5.923040050968912</v>
       </c>
+      <c r="P391" t="n">
+        <v>-12.93871964321762</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>0.05083092766781421</v>
+      </c>
+      <c r="R391" t="n">
+        <v>-1.84838852045966</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -24080,6 +27437,15 @@
       <c r="O392" t="n">
         <v>2.073635704994246</v>
       </c>
+      <c r="P392" t="n">
+        <v>-25.36910013008056</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>0.002904624438160812</v>
+      </c>
+      <c r="R392" t="n">
+        <v>-1.81207858072004</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -24141,6 +27507,15 @@
       <c r="O393" t="n">
         <v>6.043498459111821</v>
       </c>
+      <c r="P393" t="n">
+        <v>-12.09551078621725</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>0.06172326931091732</v>
+      </c>
+      <c r="R393" t="n">
+        <v>-1.727930112316751</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -24202,6 +27577,15 @@
       <c r="O394" t="n">
         <v>5.00735711188558</v>
       </c>
+      <c r="P394" t="n">
+        <v>-19.34850021680094</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>0.01161849775264323</v>
+      </c>
+      <c r="R394" t="n">
+        <v>-2.764071459542992</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -24263,6 +27647,15 @@
       <c r="O395" t="n">
         <v>2.866312303360837</v>
       </c>
+      <c r="P395" t="n">
+        <v>-14.27162775294828</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>0.03739703964132045</v>
+      </c>
+      <c r="R395" t="n">
+        <v>-1.019401982353448</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -24324,6 +27717,15 @@
       <c r="O396" t="n">
         <v>5.784597175243117</v>
       </c>
+      <c r="P396" t="n">
+        <v>-13.90781977329818</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>0.04066474213425138</v>
+      </c>
+      <c r="R396" t="n">
+        <v>-1.986831396185454</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -24385,6 +27787,15 @@
       <c r="O397" t="n">
         <v>5.936194339235803</v>
       </c>
+      <c r="P397" t="n">
+        <v>-12.84663962534938</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>0.05192016183212448</v>
+      </c>
+      <c r="R397" t="n">
+        <v>-1.835234232192769</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -24446,6 +27857,15 @@
       <c r="O398" t="n">
         <v>2.921360793885285</v>
       </c>
+      <c r="P398" t="n">
+        <v>-13.50094888560601</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>0.04465860073672253</v>
+      </c>
+      <c r="R398" t="n">
+        <v>-0.964353491829001</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -24507,6 +27927,15 @@
       <c r="O399" t="n">
         <v>2.850875768351782</v>
       </c>
+      <c r="P399" t="n">
+        <v>-14.48773924307505</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>0.0355816493674699</v>
+      </c>
+      <c r="R399" t="n">
+        <v>-1.034838517362504</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -24568,6 +27997,15 @@
       <c r="O400" t="n">
         <v>5.57584283855992</v>
       </c>
+      <c r="P400" t="n">
+        <v>-15.36910013008056</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>0.02904624438160812</v>
+      </c>
+      <c r="R400" t="n">
+        <v>-2.195585732868651</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -24629,6 +28067,15 @@
       <c r="O401" t="n">
         <v>2.759516328657468</v>
       </c>
+      <c r="P401" t="n">
+        <v>-15.76677139879544</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>0.0265046979982174</v>
+      </c>
+      <c r="R401" t="n">
+        <v>-1.126197957056817</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -24690,6 +28137,15 @@
       <c r="O402" t="n">
         <v>2.938530965933455</v>
       </c>
+      <c r="P402" t="n">
+        <v>-13.26056647693163</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>0.0472001471201132</v>
+      </c>
+      <c r="R402" t="n">
+        <v>-0.9471833197808307</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -24751,6 +28207,15 @@
       <c r="O403" t="n">
         <v>3.855671434765741</v>
       </c>
+      <c r="P403" t="n">
+        <v>-27.41029995663981</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>0.001815390273850507</v>
+      </c>
+      <c r="R403" t="n">
+        <v>-3.91575713666283</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -24812,6 +28277,15 @@
       <c r="O404" t="n">
         <v>2.938530965933455</v>
       </c>
+      <c r="P404" t="n">
+        <v>-13.26056647693163</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>0.0472001471201132</v>
+      </c>
+      <c r="R404" t="n">
+        <v>-0.9471833197808307</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -24873,6 +28347,15 @@
       <c r="O405" t="n">
         <v>5.842721587770569</v>
       </c>
+      <c r="P405" t="n">
+        <v>-13.50094888560601</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>0.04465860073672253</v>
+      </c>
+      <c r="R405" t="n">
+        <v>-1.928706983658002</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -24934,6 +28417,15 @@
       <c r="O406" t="n">
         <v>2.513224242769919</v>
       </c>
+      <c r="P406" t="n">
+        <v>-19.21486060122113</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>0.01198157580741334</v>
+      </c>
+      <c r="R406" t="n">
+        <v>-1.372490042944366</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -24995,6 +28487,15 @@
       <c r="O407" t="n">
         <v>5.89121662995298</v>
       </c>
+      <c r="P407" t="n">
+        <v>-13.16148359032914</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>0.04828938128442348</v>
+      </c>
+      <c r="R407" t="n">
+        <v>-1.880211941475592</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -25056,6 +28557,15 @@
       <c r="O408" t="n">
         <v>6.017410863434226</v>
       </c>
+      <c r="P408" t="n">
+        <v>-12.27812395596042</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>0.05918172292752657</v>
+      </c>
+      <c r="R408" t="n">
+        <v>-1.754017707994345</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -25117,6 +28627,15 @@
       <c r="O409" t="n">
         <v>2.866312303360837</v>
       </c>
+      <c r="P409" t="n">
+        <v>-14.27162775294828</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>0.03739703964132045</v>
+      </c>
+      <c r="R409" t="n">
+        <v>-1.019401982353448</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -25178,6 +28697,15 @@
       <c r="O410" t="n">
         <v>5.837656900963927</v>
       </c>
+      <c r="P410" t="n">
+        <v>-13.53640169325251</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>0.04429552268195239</v>
+      </c>
+      <c r="R410" t="n">
+        <v>-1.933771670464645</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -25239,6 +28767,15 @@
       <c r="O411" t="n">
         <v>2.841231146634891</v>
       </c>
+      <c r="P411" t="n">
+        <v>-14.62276394711152</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>0.03449241520315962</v>
+      </c>
+      <c r="R411" t="n">
+        <v>-1.044483139079394</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -25300,6 +28837,15 @@
       <c r="O412" t="n">
         <v>5.998081552792032</v>
       </c>
+      <c r="P412" t="n">
+        <v>-12.41342913045577</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>0.05736633265367599</v>
+      </c>
+      <c r="R412" t="n">
+        <v>-1.773347018636539</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -25361,6 +28907,15 @@
       <c r="O413" t="n">
         <v>5.354554324294571</v>
       </c>
+      <c r="P413" t="n">
+        <v>-16.918119729938</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>0.02033237106712566</v>
+      </c>
+      <c r="R413" t="n">
+        <v>-2.416874247134</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -25421,6 +28976,15 @@
       </c>
       <c r="O414" t="n">
         <v>5.583550026969499</v>
+      </c>
+      <c r="P414" t="n">
+        <v>-15.3151498112135</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>0.02940932243637821</v>
+      </c>
+      <c r="R414" t="n">
+        <v>-2.187878544459072</v>
       </c>
     </row>
     <row r="415">
@@ -25473,6 +29037,9 @@
       </c>
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr"/>
+      <c r="P415" t="inlineStr"/>
+      <c r="Q415" t="inlineStr"/>
+      <c r="R415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -25534,6 +29101,15 @@
       <c r="O416" t="n">
         <v>2.759516328657468</v>
       </c>
+      <c r="P416" t="n">
+        <v>-15.76677139879544</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>0.0265046979982174</v>
+      </c>
+      <c r="R416" t="n">
+        <v>-1.126197957056817</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -25595,6 +29171,15 @@
       <c r="O417" t="n">
         <v>5.320394099429699</v>
       </c>
+      <c r="P417" t="n">
+        <v>-17.15724130399211</v>
+      </c>
+      <c r="Q417" t="n">
+        <v>0.01924313690281538</v>
+      </c>
+      <c r="R417" t="n">
+        <v>-2.451034471998873</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -25656,6 +29241,15 @@
       <c r="O418" t="n">
         <v>2.866312303360837</v>
       </c>
+      <c r="P418" t="n">
+        <v>-14.27162775294828</v>
+      </c>
+      <c r="Q418" t="n">
+        <v>0.03739703964132045</v>
+      </c>
+      <c r="R418" t="n">
+        <v>-1.019401982353448</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -25717,6 +29311,15 @@
       <c r="O419" t="n">
         <v>5.89121662995298</v>
       </c>
+      <c r="P419" t="n">
+        <v>-13.16148359032914</v>
+      </c>
+      <c r="Q419" t="n">
+        <v>0.04828938128442348</v>
+      </c>
+      <c r="R419" t="n">
+        <v>-1.880211941475592</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -25778,6 +29381,15 @@
       <c r="O420" t="n">
         <v>5.842721587770569</v>
       </c>
+      <c r="P420" t="n">
+        <v>-13.50094888560601</v>
+      </c>
+      <c r="Q420" t="n">
+        <v>0.04465860073672253</v>
+      </c>
+      <c r="R420" t="n">
+        <v>-1.928706983658002</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -25839,6 +29451,15 @@
       <c r="O421" t="n">
         <v>2.921360793885285</v>
       </c>
+      <c r="P421" t="n">
+        <v>-13.50094888560601</v>
+      </c>
+      <c r="Q421" t="n">
+        <v>0.04465860073672253</v>
+      </c>
+      <c r="R421" t="n">
+        <v>-0.964353491829001</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -25900,6 +29521,15 @@
       <c r="O422" t="n">
         <v>2.921360793885285</v>
       </c>
+      <c r="P422" t="n">
+        <v>-13.50094888560601</v>
+      </c>
+      <c r="Q422" t="n">
+        <v>0.04465860073672253</v>
+      </c>
+      <c r="R422" t="n">
+        <v>-0.964353491829001</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -25961,6 +29591,15 @@
       <c r="O423" t="n">
         <v>5.598682989108677</v>
       </c>
+      <c r="P423" t="n">
+        <v>-15.20921907623926</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>0.03013547854591844</v>
+      </c>
+      <c r="R423" t="n">
+        <v>-2.172745582319894</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -26021,6 +29660,15 @@
       </c>
       <c r="O424" t="n">
         <v>5.37632570508991</v>
+      </c>
+      <c r="P424" t="n">
+        <v>-16.76572006437063</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>0.02105852717666588</v>
+      </c>
+      <c r="R424" t="n">
+        <v>-2.395102866338661</v>
       </c>
     </row>
     <row r="425">
@@ -26073,6 +29721,9 @@
       </c>
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr"/>
+      <c r="P425" t="inlineStr"/>
+      <c r="Q425" t="inlineStr"/>
+      <c r="R425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -26124,6 +29775,9 @@
       </c>
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr"/>
+      <c r="P426" t="inlineStr"/>
+      <c r="Q426" t="inlineStr"/>
+      <c r="R426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -26175,6 +29829,9 @@
       </c>
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr"/>
+      <c r="P427" t="inlineStr"/>
+      <c r="Q427" t="inlineStr"/>
+      <c r="R427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -26226,6 +29883,9 @@
       </c>
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr"/>
+      <c r="P428" t="inlineStr"/>
+      <c r="Q428" t="inlineStr"/>
+      <c r="R428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -26287,6 +29947,15 @@
       <c r="O429" t="n">
         <v>11.58022412423834</v>
       </c>
+      <c r="P429" t="n">
+        <v>-13.8692155651658</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>0.04102782018902152</v>
+      </c>
+      <c r="R429" t="n">
+        <v>-3.962633018618799</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -26348,6 +30017,15 @@
       <c r="O430" t="n">
         <v>2.795581323131227</v>
       </c>
+      <c r="P430" t="n">
+        <v>-15.26186147616283</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>0.02977240049114835</v>
+      </c>
+      <c r="R430" t="n">
+        <v>-1.090132962583059</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -26409,6 +30087,15 @@
       <c r="O431" t="n">
         <v>2.78792141927996</v>
       </c>
+      <c r="P431" t="n">
+        <v>-15.36910013008056</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>0.02904624438160812</v>
+      </c>
+      <c r="R431" t="n">
+        <v>-1.097792866434326</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -26469,6 +30156,15 @@
       </c>
       <c r="O432" t="n">
         <v>2.513224242769919</v>
+      </c>
+      <c r="P432" t="n">
+        <v>-19.21486060122113</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>0.01198157580741334</v>
+      </c>
+      <c r="R432" t="n">
+        <v>-1.372490042944366</v>
       </c>
     </row>
     <row r="433">
@@ -26521,6 +30217,9 @@
       </c>
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr"/>
+      <c r="P433" t="inlineStr"/>
+      <c r="Q433" t="inlineStr"/>
+      <c r="R433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -26582,6 +30281,15 @@
       <c r="O434" t="n">
         <v>2.94560831497649</v>
       </c>
+      <c r="P434" t="n">
+        <v>-13.16148359032914</v>
+      </c>
+      <c r="Q434" t="n">
+        <v>0.04828938128442348</v>
+      </c>
+      <c r="R434" t="n">
+        <v>-0.9401059707377958</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -26643,6 +30351,15 @@
       <c r="O435" t="n">
         <v>3.027175787949139</v>
       </c>
+      <c r="P435" t="n">
+        <v>-12.01953896871205</v>
+      </c>
+      <c r="Q435" t="n">
+        <v>0.06281250347522749</v>
+      </c>
+      <c r="R435" t="n">
+        <v>-0.8585384977651463</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -26703,6 +30420,15 @@
       </c>
       <c r="O436" t="n">
         <v>1.769372324799759</v>
+      </c>
+      <c r="P436" t="n">
+        <v>-29.62878745280337</v>
+      </c>
+      <c r="Q436" t="n">
+        <v>0.001089234164310305</v>
+      </c>
+      <c r="R436" t="n">
+        <v>-2.116341960914526</v>
       </c>
     </row>
     <row r="437">
@@ -26755,6 +30481,9 @@
       </c>
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr"/>
+      <c r="P437" t="inlineStr"/>
+      <c r="Q437" t="inlineStr"/>
+      <c r="R437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -26816,6 +30545,15 @@
       <c r="O438" t="n">
         <v>2.357878568331415</v>
       </c>
+      <c r="P438" t="n">
+        <v>-21.38970004336019</v>
+      </c>
+      <c r="Q438" t="n">
+        <v>0.007261561095402029</v>
+      </c>
+      <c r="R438" t="n">
+        <v>-1.52783571738287</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -26877,6 +30615,15 @@
       <c r="O439" t="n">
         <v>2.863285836972799</v>
       </c>
+      <c r="P439" t="n">
+        <v>-14.31399828238082</v>
+      </c>
+      <c r="Q439" t="n">
+        <v>0.03703396158655042</v>
+      </c>
+      <c r="R439" t="n">
+        <v>-1.022428448741487</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -26938,6 +30685,15 @@
       <c r="O440" t="n">
         <v>2.938530965933455</v>
       </c>
+      <c r="P440" t="n">
+        <v>-13.26056647693163</v>
+      </c>
+      <c r="Q440" t="n">
+        <v>0.0472001471201132</v>
+      </c>
+      <c r="R440" t="n">
+        <v>-0.9471833197808307</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -26999,6 +30755,15 @@
       <c r="O441" t="n">
         <v>2.642121431668585</v>
       </c>
+      <c r="P441" t="n">
+        <v>-17.41029995663981</v>
+      </c>
+      <c r="Q441" t="n">
+        <v>0.01815390273850507</v>
+      </c>
+      <c r="R441" t="n">
+        <v>-1.243592854045701</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -27059,6 +30824,15 @@
       </c>
       <c r="O442" t="n">
         <v>2.483658039085473</v>
+      </c>
+      <c r="P442" t="n">
+        <v>-19.62878745280337</v>
+      </c>
+      <c r="Q442" t="n">
+        <v>0.01089234164310305</v>
+      </c>
+      <c r="R442" t="n">
+        <v>-1.402056246628812</v>
       </c>
     </row>
     <row r="443">
@@ -27111,6 +30885,9 @@
       </c>
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr"/>
+      <c r="P443" t="inlineStr"/>
+      <c r="Q443" t="inlineStr"/>
+      <c r="R443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -27171,6 +30948,15 @@
       </c>
       <c r="O444" t="n">
         <v>2.513224242769919</v>
+      </c>
+      <c r="P444" t="n">
+        <v>-19.21486060122113</v>
+      </c>
+      <c r="Q444" t="n">
+        <v>0.01198157580741334</v>
+      </c>
+      <c r="R444" t="n">
+        <v>-1.372490042944366</v>
       </c>
     </row>
     <row r="445">
@@ -27223,6 +31009,9 @@
       </c>
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr"/>
+      <c r="P445" t="inlineStr"/>
+      <c r="Q445" t="inlineStr"/>
+      <c r="R445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -27283,6 +31072,15 @@
       </c>
       <c r="O446" t="n">
         <v>2.513224242769919</v>
+      </c>
+      <c r="P446" t="n">
+        <v>-19.21486060122113</v>
+      </c>
+      <c r="Q446" t="n">
+        <v>0.01198157580741334</v>
+      </c>
+      <c r="R446" t="n">
+        <v>-1.372490042944366</v>
       </c>
     </row>
     <row r="447">
@@ -27335,6 +31133,9 @@
       </c>
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr"/>
+      <c r="P447" t="inlineStr"/>
+      <c r="Q447" t="inlineStr"/>
+      <c r="R447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -27395,6 +31196,15 @@
       </c>
       <c r="O448" t="n">
         <v>2.913700890034018</v>
+      </c>
+      <c r="P448" t="n">
+        <v>-13.60818753952375</v>
+      </c>
+      <c r="Q448" t="n">
+        <v>0.04356936657241219</v>
+      </c>
+      <c r="R448" t="n">
+        <v>-0.9720133956802677</v>
       </c>
     </row>
     <row r="449">
@@ -27447,6 +31257,9 @@
       </c>
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr"/>
+      <c r="P449" t="inlineStr"/>
+      <c r="Q449" t="inlineStr"/>
+      <c r="R449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -27498,6 +31311,9 @@
       </c>
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr"/>
+      <c r="P450" t="inlineStr"/>
+      <c r="Q450" t="inlineStr"/>
+      <c r="R450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -27559,6 +31375,15 @@
       <c r="O451" t="n">
         <v>3.236133341592417</v>
       </c>
+      <c r="P451" t="n">
+        <v>-20.42059991327962</v>
+      </c>
+      <c r="Q451" t="n">
+        <v>0.009076951369252533</v>
+      </c>
+      <c r="R451" t="n">
+        <v>-1.944819039359964</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -27620,6 +31445,15 @@
       <c r="O452" t="n">
         <v>9.70840002477725</v>
       </c>
+      <c r="P452" t="n">
+        <v>-20.42059991327962</v>
+      </c>
+      <c r="Q452" t="n">
+        <v>0.009076951369252533</v>
+      </c>
+      <c r="R452" t="n">
+        <v>-5.834457118079892</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -27681,6 +31515,15 @@
       <c r="O453" t="n">
         <v>3.631346053945577</v>
       </c>
+      <c r="P453" t="n">
+        <v>-16.27086643357144</v>
+      </c>
+      <c r="Q453" t="n">
+        <v>0.0236000735600566</v>
+      </c>
+      <c r="R453" t="n">
+        <v>-1.549606327006804</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -27742,6 +31585,15 @@
       <c r="O454" t="n">
         <v>10.89403816183673</v>
       </c>
+      <c r="P454" t="n">
+        <v>-16.27086643357144</v>
+      </c>
+      <c r="Q454" t="n">
+        <v>0.0236000735600566</v>
+      </c>
+      <c r="R454" t="n">
+        <v>-4.648818981020412</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -27803,6 +31655,15 @@
       <c r="O455" t="n">
         <v>3.817714449297065</v>
       </c>
+      <c r="P455" t="n">
+        <v>-14.31399828238082</v>
+      </c>
+      <c r="Q455" t="n">
+        <v>0.03703396158655042</v>
+      </c>
+      <c r="R455" t="n">
+        <v>-1.363237931655316</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -27864,6 +31725,15 @@
       <c r="O456" t="n">
         <v>11.4531433478912</v>
       </c>
+      <c r="P456" t="n">
+        <v>-14.31399828238082</v>
+      </c>
+      <c r="Q456" t="n">
+        <v>0.03703396158655042</v>
+      </c>
+      <c r="R456" t="n">
+        <v>-4.089713794965947</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -27925,6 +31795,15 @@
       <c r="O457" t="n">
         <v>2.570447623177161</v>
       </c>
+      <c r="P457" t="n">
+        <v>-27.41029995663981</v>
+      </c>
+      <c r="Q457" t="n">
+        <v>0.001815390273850507</v>
+      </c>
+      <c r="R457" t="n">
+        <v>-2.61050475777522</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -27986,6 +31865,15 @@
       <c r="O458" t="n">
         <v>7.711342869531483</v>
       </c>
+      <c r="P458" t="n">
+        <v>-27.41029995663981</v>
+      </c>
+      <c r="Q458" t="n">
+        <v>0.001815390273850507</v>
+      </c>
+      <c r="R458" t="n">
+        <v>-7.83151427332566</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -28047,6 +31935,15 @@
       <c r="O459" t="n">
         <v>3.78393128914257</v>
       </c>
+      <c r="P459" t="n">
+        <v>-14.66872146400301</v>
+      </c>
+      <c r="Q459" t="n">
+        <v>0.03412933714838953</v>
+      </c>
+      <c r="R459" t="n">
+        <v>-1.397021091809811</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -28107,6 +32004,15 @@
       </c>
       <c r="O460" t="n">
         <v>11.35179386742771</v>
+      </c>
+      <c r="P460" t="n">
+        <v>-14.66872146400301</v>
+      </c>
+      <c r="Q460" t="n">
+        <v>0.03412933714838953</v>
+      </c>
+      <c r="R460" t="n">
+        <v>-4.191063275429433</v>
       </c>
     </row>
     <row r="461">
@@ -28159,6 +32065,9 @@
       </c>
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr"/>
+      <c r="P461" t="inlineStr"/>
+      <c r="Q461" t="inlineStr"/>
+      <c r="R461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -28210,6 +32119,9 @@
       </c>
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr"/>
+      <c r="P462" t="inlineStr"/>
+      <c r="Q462" t="inlineStr"/>
+      <c r="R462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -28271,6 +32183,15 @@
       <c r="O463" t="n">
         <v>3.554660723640922</v>
       </c>
+      <c r="P463" t="n">
+        <v>-17.07606240177032</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>0.01960621495758547</v>
+      </c>
+      <c r="R463" t="n">
+        <v>-1.626291657311459</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -28332,6 +32253,15 @@
       <c r="O464" t="n">
         <v>10.66398217092277</v>
       </c>
+      <c r="P464" t="n">
+        <v>-17.07606240177032</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>0.01960621495758547</v>
+      </c>
+      <c r="R464" t="n">
+        <v>-4.878874971934375</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -28393,6 +32323,15 @@
       <c r="O465" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P465" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R465" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -28454,6 +32393,15 @@
       <c r="O466" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P466" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R466" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -28515,6 +32463,15 @@
       <c r="O467" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P467" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R467" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -28576,6 +32533,15 @@
       <c r="O468" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P468" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R468" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -28637,6 +32603,15 @@
       <c r="O469" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P469" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R469" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -28698,6 +32673,15 @@
       <c r="O470" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P470" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R470" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -28759,6 +32743,15 @@
       <c r="O471" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P471" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R471" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -28820,6 +32813,15 @@
       <c r="O472" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P472" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R472" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -28881,6 +32883,15 @@
       <c r="O473" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P473" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R473" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -28942,6 +32953,15 @@
       <c r="O474" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P474" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q474" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R474" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -29003,6 +33023,15 @@
       <c r="O475" t="n">
         <v>8.340523430789915</v>
       </c>
+      <c r="P475" t="n">
+        <v>-4.297382846050425</v>
+      </c>
+      <c r="Q475" t="n">
+        <v>0.3717591918634179</v>
+      </c>
+      <c r="R475" t="n">
+        <v>-0.859476569210085</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -29064,6 +33093,15 @@
       <c r="O476" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P476" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q476" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R476" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -29125,6 +33163,15 @@
       <c r="O477" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P477" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q477" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R477" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -29186,6 +33233,15 @@
       <c r="O478" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P478" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q478" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R478" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -29247,6 +33303,15 @@
       <c r="O479" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P479" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q479" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R479" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -29308,6 +33373,15 @@
       <c r="O480" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P480" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R480" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -29369,6 +33443,15 @@
       <c r="O481" t="n">
         <v>8.636126669925524</v>
       </c>
+      <c r="P481" t="n">
+        <v>-2.81936665037238</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>0.5224723777539931</v>
+      </c>
+      <c r="R481" t="n">
+        <v>-0.563873330074476</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -29430,6 +33513,15 @@
       <c r="O482" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P482" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q482" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R482" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -29491,6 +33583,15 @@
       <c r="O483" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P483" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q483" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R483" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -29552,6 +33653,15 @@
       <c r="O484" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P484" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R484" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -29613,6 +33723,15 @@
       <c r="O485" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P485" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q485" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R485" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -29674,6 +33793,15 @@
       <c r="O486" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P486" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q486" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R486" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -29735,6 +33863,15 @@
       <c r="O487" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P487" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q487" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R487" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -29796,6 +33933,15 @@
       <c r="O488" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P488" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q488" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R488" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -29857,6 +34003,15 @@
       <c r="O489" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P489" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q489" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R489" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -29918,6 +34073,15 @@
       <c r="O490" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P490" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q490" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R490" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -29979,6 +34143,15 @@
       <c r="O491" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P491" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R491" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -30040,6 +34213,15 @@
       <c r="O492" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P492" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R492" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -30101,6 +34283,15 @@
       <c r="O493" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P493" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R493" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -30162,6 +34353,15 @@
       <c r="O494" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P494" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q494" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R494" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -30223,6 +34423,15 @@
       <c r="O495" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P495" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q495" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R495" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -30284,6 +34493,15 @@
       <c r="O496" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P496" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q496" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R496" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -30345,6 +34563,15 @@
       <c r="O497" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P497" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q497" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R497" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -30406,6 +34633,15 @@
       <c r="O498" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P498" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q498" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R498" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -30467,6 +34703,15 @@
       <c r="O499" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P499" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q499" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R499" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -30528,6 +34773,15 @@
       <c r="O500" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P500" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q500" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R500" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -30589,6 +34843,15 @@
       <c r="O501" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P501" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q501" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R501" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -30650,6 +34913,15 @@
       <c r="O502" t="n">
         <v>21.78967423500227</v>
       </c>
+      <c r="P502" t="n">
+        <v>-2.42065152999546</v>
+      </c>
+      <c r="Q502" t="n">
+        <v>0.5727101063841845</v>
+      </c>
+      <c r="R502" t="n">
+        <v>-1.21032576499773</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -30711,6 +34983,15 @@
       <c r="O503" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P503" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q503" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R503" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -30772,6 +35053,15 @@
       <c r="O504" t="n">
         <v>8.548315698527359</v>
       </c>
+      <c r="P504" t="n">
+        <v>-3.258421507363202</v>
+      </c>
+      <c r="Q504" t="n">
+        <v>0.472234649123801</v>
+      </c>
+      <c r="R504" t="n">
+        <v>-0.6516843014726404</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -30833,6 +35123,15 @@
       <c r="O505" t="n">
         <v>6.089215842472043</v>
       </c>
+      <c r="P505" t="n">
+        <v>-11.7754891026957</v>
+      </c>
+      <c r="Q505" t="n">
+        <v>0.06644328402292859</v>
+      </c>
+      <c r="R505" t="n">
+        <v>-1.682212728956529</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -30894,6 +35193,15 @@
       <c r="O506" t="n">
         <v>5.990177997649231</v>
       </c>
+      <c r="P506" t="n">
+        <v>-12.46875401645539</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>0.05664017654413579</v>
+      </c>
+      <c r="R506" t="n">
+        <v>-1.781250573779341</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -30955,6 +35263,15 @@
       <c r="O507" t="n">
         <v>8.066847510973899</v>
       </c>
+      <c r="P507" t="n">
+        <v>-5.665762445130504</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>0.2712837346030346</v>
+      </c>
+      <c r="R507" t="n">
+        <v>-1.133152489026101</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -31016,6 +35333,15 @@
       <c r="O508" t="n">
         <v>5.620712073205097</v>
       </c>
+      <c r="P508" t="n">
+        <v>-15.05501548756432</v>
+      </c>
+      <c r="Q508" t="n">
+        <v>0.03122471271022875</v>
+      </c>
+      <c r="R508" t="n">
+        <v>-2.150716498223474</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -31077,6 +35403,15 @@
       <c r="O509" t="n">
         <v>5.080432143953267</v>
       </c>
+      <c r="P509" t="n">
+        <v>-18.83697499232713</v>
+      </c>
+      <c r="Q509" t="n">
+        <v>0.01307080997172364</v>
+      </c>
+      <c r="R509" t="n">
+        <v>-2.690996427475304</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -31138,6 +35473,15 @@
       <c r="O510" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P510" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q510" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R510" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -31199,6 +35543,15 @@
       <c r="O511" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P511" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q511" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R511" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -31260,6 +35613,15 @@
       <c r="O512" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P512" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q512" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R512" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -31321,6 +35683,15 @@
       <c r="O513" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P513" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q513" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R513" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -31382,6 +35753,15 @@
       <c r="O514" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P514" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q514" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R514" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -31443,6 +35823,15 @@
       <c r="O515" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P515" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q515" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R515" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -31504,6 +35893,15 @@
       <c r="O516" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P516" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q516" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R516" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -31565,6 +35963,15 @@
       <c r="O517" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P517" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q517" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R517" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -31626,6 +36033,15 @@
       <c r="O518" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P518" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q518" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R518" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -31687,6 +36103,15 @@
       <c r="O519" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P519" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R519" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -31748,6 +36173,15 @@
       <c r="O520" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P520" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R520" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -31809,6 +36243,15 @@
       <c r="O521" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P521" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R521" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -31870,6 +36313,15 @@
       <c r="O522" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P522" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R522" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -31931,6 +36383,15 @@
       <c r="O523" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P523" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R523" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -31992,6 +36453,15 @@
       <c r="O524" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P524" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R524" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -32053,6 +36523,15 @@
       <c r="O525" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P525" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R525" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -32114,6 +36593,15 @@
       <c r="O526" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P526" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R526" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -32175,6 +36663,15 @@
       <c r="O527" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P527" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R527" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -32236,6 +36733,15 @@
       <c r="O528" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P528" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R528" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -32297,6 +36803,15 @@
       <c r="O529" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P529" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R529" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -32358,6 +36873,15 @@
       <c r="O530" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P530" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R530" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -32419,6 +36943,15 @@
       <c r="O531" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P531" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R531" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -32480,6 +37013,15 @@
       <c r="O532" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P532" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R532" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -32541,6 +37083,15 @@
       <c r="O533" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P533" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R533" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -32602,6 +37153,15 @@
       <c r="O534" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P534" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R534" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -32663,6 +37223,15 @@
       <c r="O535" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P535" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R535" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -32724,6 +37293,15 @@
       <c r="O536" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P536" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R536" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -32785,6 +37363,15 @@
       <c r="O537" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P537" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R537" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -32846,6 +37433,15 @@
       <c r="O538" t="n">
         <v>8.67691298720921</v>
       </c>
+      <c r="P538" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R538" t="n">
+        <v>-0.5230870127907906</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -32906,6 +37502,15 @@
       </c>
       <c r="O539" t="n">
         <v>8.67691298720921</v>
+      </c>
+      <c r="P539" t="n">
+        <v>-2.615435063953953</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>0.5475912420690883</v>
+      </c>
+      <c r="R539" t="n">
+        <v>-0.5230870127907906</v>
       </c>
     </row>
   </sheetData>

--- a/Data/unwired.xlsx
+++ b/Data/unwired.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
